--- a/data/model_data/twfe_SALSOCIO.xlsx
+++ b/data/model_data/twfe_SALSOCIO.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>21686.13310250109</v>
+        <v>21686.13310250633</v>
       </c>
       <c r="C2">
-        <v>1167.653747324881</v>
+        <v>1704.614511022339</v>
       </c>
       <c r="D2">
-        <v>18.57240055297598</v>
+        <v>12.72201601140901</v>
       </c>
       <c r="E2">
-        <v>6.401336389225462E-74</v>
+        <v>1.265645413926771E-35</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>914.0085831422106</v>
+        <v>914.0085831423071</v>
       </c>
       <c r="C3">
-        <v>315.3291889860946</v>
+        <v>460.3374181137074</v>
       </c>
       <c r="D3">
-        <v>2.898585399217567</v>
+        <v>1.985518767706472</v>
       </c>
       <c r="E3">
-        <v>0.003768911077127182</v>
+        <v>0.04723223835902752</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>4757.112064799295</v>
+        <v>4757.112064794735</v>
       </c>
       <c r="C4">
-        <v>1623.276753775347</v>
+        <v>2369.761683401397</v>
       </c>
       <c r="D4">
-        <v>2.930561319094485</v>
+        <v>2.007422137894767</v>
       </c>
       <c r="E4">
-        <v>0.003402674285602555</v>
+        <v>0.04484799509882428</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-15019.77682408432</v>
+        <v>-15019.77682409415</v>
       </c>
       <c r="C5">
-        <v>1623.276753775066</v>
+        <v>2369.761683401165</v>
       </c>
       <c r="D5">
-        <v>-9.252751749912372</v>
+        <v>-6.338095906140755</v>
       </c>
       <c r="E5">
-        <v>3.474958148021259E-20</v>
+        <v>2.906281239838599E-10</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-17577.44349075258</v>
+        <v>-17577.44349076018</v>
       </c>
       <c r="C6">
-        <v>1623.276753775242</v>
+        <v>2369.761683401099</v>
       </c>
       <c r="D6">
-        <v>-10.82837134818376</v>
+        <v>-7.417388682533219</v>
       </c>
       <c r="E6">
-        <v>5.958049429637017E-27</v>
+        <v>1.800303872163083E-13</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-9031.440629708173</v>
+        <v>-9031.440629714034</v>
       </c>
       <c r="C7">
-        <v>1628.938563849761</v>
+        <v>2378.027150483062</v>
       </c>
       <c r="D7">
-        <v>-5.544371549755486</v>
+        <v>-3.79787111676981</v>
       </c>
       <c r="E7">
-        <v>3.140695927191008E-08</v>
+        <v>0.0001505912794179464</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-20257.99618526789</v>
+        <v>-20257.99618527148</v>
       </c>
       <c r="C8">
-        <v>1628.938563850055</v>
+        <v>2378.027150483173</v>
       </c>
       <c r="D8">
-        <v>-12.43631689668356</v>
+        <v>-8.518824598430433</v>
       </c>
       <c r="E8">
-        <v>7.276354617126259E-35</v>
+        <v>3.257008531757556E-17</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-17005.44349075809</v>
+        <v>-17005.44349075989</v>
       </c>
       <c r="C9">
-        <v>1623.276753775615</v>
+        <v>2369.761683401081</v>
       </c>
       <c r="D9">
-        <v>-10.4759976702708</v>
+        <v>-7.176014200024404</v>
       </c>
       <c r="E9">
-        <v>2.365678670115922E-25</v>
+        <v>1.029419592941283E-12</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>-10441.32951859809</v>
+        <v>-10441.32951860348</v>
       </c>
       <c r="C10">
-        <v>1628.938563849913</v>
+        <v>2378.027150483138</v>
       </c>
       <c r="D10">
-        <v>-6.409897678351073</v>
+        <v>-4.390752862717377</v>
       </c>
       <c r="E10">
-        <v>1.625425113669515E-10</v>
+        <v>1.192549579733718E-05</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>-22074.21840748466</v>
+        <v>-22074.2184074909</v>
       </c>
       <c r="C11">
-        <v>1628.938563849757</v>
+        <v>2378.027150482914</v>
       </c>
       <c r="D11">
-        <v>-13.55128971550375</v>
+        <v>-9.282576274626727</v>
       </c>
       <c r="E11">
-        <v>6.167617482281671E-41</v>
+        <v>4.420909265909018E-20</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-23315.77396303537</v>
+        <v>-23315.7739630509</v>
       </c>
       <c r="C12">
-        <v>1628.938563849493</v>
+        <v>2378.027150483276</v>
       </c>
       <c r="D12">
-        <v>-14.31347656717988</v>
+        <v>-9.804671051931656</v>
       </c>
       <c r="E12">
-        <v>2.342474152528197E-45</v>
+        <v>3.628345837309394E-22</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-10661.32951859909</v>
+        <v>-10661.32951860079</v>
       </c>
       <c r="C13">
-        <v>1628.938563850043</v>
+        <v>2378.027150482712</v>
       </c>
       <c r="D13">
-        <v>-6.544954951155882</v>
+        <v>-4.483266524705853</v>
       </c>
       <c r="E13">
-        <v>6.70517591996099E-11</v>
+        <v>7.795480199152622E-06</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>11360.44444445229</v>
+        <v>11360.44444444447</v>
       </c>
       <c r="C14">
-        <v>1622.898597464344</v>
+        <v>2369.209626991193</v>
       </c>
       <c r="D14">
-        <v>7.000095053506191</v>
+        <v>4.795035574320119</v>
       </c>
       <c r="E14">
-        <v>2.986871737483522E-12</v>
+        <v>1.754733088307098E-06</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-19893.88507415622</v>
+        <v>-19893.88507415504</v>
       </c>
       <c r="C15">
-        <v>1628.938563850037</v>
+        <v>2378.027150482685</v>
       </c>
       <c r="D15">
-        <v>-12.21279028911718</v>
+        <v>-8.365709815431265</v>
       </c>
       <c r="E15">
-        <v>1.051983393318042E-33</v>
+        <v>1.150869046947506E-16</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>-10890.66666666424</v>
+        <v>-10890.66666666532</v>
       </c>
       <c r="C16">
-        <v>1622.898597464564</v>
+        <v>2369.209626991294</v>
       </c>
       <c r="D16">
-        <v>-6.710626704390902</v>
+        <v>-4.596750976609696</v>
       </c>
       <c r="E16">
-        <v>2.210201358945264E-11</v>
+        <v>4.577642627650463E-06</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>1018.555555561211</v>
+        <v>1018.555555555921</v>
       </c>
       <c r="C17">
-        <v>1622.89859746394</v>
+        <v>2369.20962699156</v>
       </c>
       <c r="D17">
-        <v>0.6276150322348426</v>
+        <v>0.4299136488185263</v>
       </c>
       <c r="E17">
-        <v>0.5302920201403032</v>
+        <v>0.6673078587607425</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>-23254.21840748972</v>
+        <v>-23254.21840749301</v>
       </c>
       <c r="C18">
-        <v>1628.938563850007</v>
+        <v>2378.027150483084</v>
       </c>
       <c r="D18">
-        <v>-14.27568781509366</v>
+        <v>-9.778785916203283</v>
       </c>
       <c r="E18">
-        <v>3.925892676680502E-45</v>
+        <v>4.62913229341842E-22</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>-20121.88888887974</v>
+        <v>-20121.88888888754</v>
       </c>
       <c r="C19">
-        <v>1622.898597463993</v>
+        <v>2369.209626991351</v>
       </c>
       <c r="D19">
-        <v>-12.39873453604743</v>
+        <v>-8.493080839976258</v>
       </c>
       <c r="E19">
-        <v>1.143692448495829E-34</v>
+        <v>4.032894556232467E-17</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-22873.99999999076</v>
+        <v>-22874.00000000267</v>
       </c>
       <c r="C20">
-        <v>1622.898597464012</v>
+        <v>2369.209626991658</v>
       </c>
       <c r="D20">
-        <v>-14.09453433241875</v>
+        <v>-9.654696544960146</v>
       </c>
       <c r="E20">
-        <v>4.588388951295564E-44</v>
+        <v>1.476425560532692E-21</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-4664.10729637561</v>
+        <v>-4664.107296380224</v>
       </c>
       <c r="C21">
-        <v>1628.938563850081</v>
+        <v>2378.027150482846</v>
       </c>
       <c r="D21">
-        <v>-2.863280052350009</v>
+        <v>-1.961334754076799</v>
       </c>
       <c r="E21">
-        <v>0.004214632086320919</v>
+        <v>0.04998777686318355</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>-22400.99999999421</v>
+        <v>-22401.00000000088</v>
       </c>
       <c r="C22">
-        <v>1622.898597464208</v>
+        <v>2369.209626991523</v>
       </c>
       <c r="D22">
-        <v>-13.80308050977181</v>
+        <v>-9.455051906253725</v>
       </c>
       <c r="E22">
-        <v>2.258566285384807E-42</v>
+        <v>9.2823647403539E-21</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>45496.67048139124</v>
+        <v>45496.67048139222</v>
       </c>
       <c r="C23">
-        <v>1628.938563849519</v>
+        <v>2378.027150482795</v>
       </c>
       <c r="D23">
-        <v>27.93025562233188</v>
+        <v>19.13210724787366</v>
       </c>
       <c r="E23">
-        <v>5.6648544957335E-157</v>
+        <v>1.12279380235823E-74</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>-23576.66285193215</v>
+        <v>-23576.66285193478</v>
       </c>
       <c r="C24">
-        <v>1628.938563849914</v>
+        <v>2378.027150482888</v>
       </c>
       <c r="D24">
-        <v>-14.47363539371915</v>
+        <v>-9.914379172309802</v>
       </c>
       <c r="E24">
-        <v>2.590090935086763E-46</v>
+        <v>1.284106125473038E-22</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>-14724.88507414883</v>
+        <v>-14724.88507415815</v>
       </c>
       <c r="C25">
-        <v>1628.938563849501</v>
+        <v>2378.02715048296</v>
       </c>
       <c r="D25">
-        <v>-9.039558274899601</v>
+        <v>-6.19205927533991</v>
       </c>
       <c r="E25">
-        <v>2.399395307379177E-19</v>
+        <v>7.277709314779297E-10</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>-13430.66285192719</v>
+        <v>-13430.66285193474</v>
       </c>
       <c r="C26">
-        <v>1628.938563849501</v>
+        <v>2378.027150482821</v>
       </c>
       <c r="D26">
-        <v>-8.245039530642522</v>
+        <v>-5.647817288043938</v>
       </c>
       <c r="E26">
-        <v>2.215949354501177E-16</v>
+        <v>1.873795034555886E-08</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-1043.55555554993</v>
+        <v>-1043.555555554492</v>
       </c>
       <c r="C27">
-        <v>1622.898597464039</v>
+        <v>2369.209626991483</v>
       </c>
       <c r="D27">
-        <v>-0.6430195683085824</v>
+        <v>-0.4404656910328535</v>
       </c>
       <c r="E27">
-        <v>0.5202482971586062</v>
+        <v>0.6596506293294927</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>-5995.444444438966</v>
+        <v>-5995.44444444431</v>
       </c>
       <c r="C28">
-        <v>1622.898597464182</v>
+        <v>2369.209626991474</v>
       </c>
       <c r="D28">
-        <v>-3.694281610574432</v>
+        <v>-2.530567314998457</v>
       </c>
       <c r="E28">
-        <v>0.0002234599906170376</v>
+        <v>0.0114690303015432</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>-6686.107296374156</v>
+        <v>-6686.107296381095</v>
       </c>
       <c r="C29">
-        <v>1628.938563849601</v>
+        <v>2378.027150483189</v>
       </c>
       <c r="D29">
-        <v>-4.104579168764453</v>
+        <v>-2.811619411083069</v>
       </c>
       <c r="E29">
-        <v>4.131389662594465E-05</v>
+        <v>0.004980561608365345</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-11525.88888888313</v>
+        <v>-11525.88888888974</v>
       </c>
       <c r="C30">
-        <v>1622.898597464214</v>
+        <v>2369.209626991641</v>
       </c>
       <c r="D30">
-        <v>-7.102038850050382</v>
+        <v>-4.8648666447996</v>
       </c>
       <c r="E30">
-        <v>1.448455374561502E-12</v>
+        <v>1.241021230291522E-06</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-16703.99618525956</v>
+        <v>-16703.99618527106</v>
       </c>
       <c r="C31">
-        <v>1628.938563849505</v>
+        <v>2378.027150483171</v>
       </c>
       <c r="D31">
-        <v>-10.25452804419136</v>
+        <v>-7.024308440665666</v>
       </c>
       <c r="E31">
-        <v>2.257792032390271E-24</v>
+        <v>2.998042830723051E-12</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-23070.55460187011</v>
+        <v>-23070.55460187327</v>
       </c>
       <c r="C32">
-        <v>1623.276753775646</v>
+        <v>2369.761683401279</v>
       </c>
       <c r="D32">
-        <v>-14.2123359730307</v>
+        <v>-9.735390171707262</v>
       </c>
       <c r="E32">
-        <v>9.305116125700011E-45</v>
+        <v>6.955062132740441E-22</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>-2385.554601867302</v>
+        <v>-2385.554601872514</v>
       </c>
       <c r="C33">
-        <v>1623.276753775486</v>
+        <v>2369.761683401348</v>
       </c>
       <c r="D33">
-        <v>-1.469592043574133</v>
+        <v>-1.006664348816924</v>
       </c>
       <c r="E33">
-        <v>0.1417509993406711</v>
+        <v>0.3142259907421012</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>-5595.329518599027</v>
+        <v>-5595.329518602259</v>
       </c>
       <c r="C34">
-        <v>1628.938563849974</v>
+        <v>2378.027150482917</v>
       </c>
       <c r="D34">
-        <v>-3.434954296480367</v>
+        <v>-2.35292919909093</v>
       </c>
       <c r="E34">
-        <v>0.000598688018888997</v>
+        <v>0.01872898656396298</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>-17073.55174082371</v>
+        <v>-17073.55174082349</v>
       </c>
       <c r="C35">
-        <v>1628.938563850147</v>
+        <v>2378.027150482828</v>
       </c>
       <c r="D35">
-        <v>-10.48139697820696</v>
+        <v>-7.179712703177892</v>
       </c>
       <c r="E35">
-        <v>2.237832595933699E-25</v>
+        <v>1.002678132565955E-12</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>-20452.6628519258</v>
+        <v>-20452.6628519368</v>
       </c>
       <c r="C36">
-        <v>1628.938563849566</v>
+        <v>2378.027150483042</v>
       </c>
       <c r="D36">
-        <v>-12.55582211989096</v>
+        <v>-8.600685172068916</v>
       </c>
       <c r="E36">
-        <v>1.713197200743558E-35</v>
+        <v>1.644597691711767E-17</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>-19377.77396303985</v>
+        <v>-19377.77396304814</v>
       </c>
       <c r="C37">
-        <v>1628.938563849709</v>
+        <v>2378.027150483083</v>
       </c>
       <c r="D37">
-        <v>-11.89595138397602</v>
+        <v>-8.148676502331631</v>
       </c>
       <c r="E37">
-        <v>4.298942041221696E-32</v>
+        <v>6.648276523353171E-16</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>-89.77682408895424</v>
+        <v>-89.7768240946257</v>
       </c>
       <c r="C38">
-        <v>1623.276753775542</v>
+        <v>2369.761683401221</v>
       </c>
       <c r="D38">
-        <v>-0.05530592604135085</v>
+        <v>-0.03788432597398263</v>
       </c>
       <c r="E38">
-        <v>0.9558975059666686</v>
+        <v>0.9697839430678034</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-22102.66285193573</v>
+        <v>-22102.66285193547</v>
       </c>
       <c r="C39">
-        <v>1628.938563850114</v>
+        <v>2378.027150482947</v>
       </c>
       <c r="D39">
-        <v>-13.56875166592808</v>
+        <v>-9.294537636984799</v>
       </c>
       <c r="E39">
-        <v>4.912224891030991E-41</v>
+        <v>3.970635740011935E-20</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-22449.88888888224</v>
+        <v>-22449.8888888875</v>
       </c>
       <c r="C40">
-        <v>1622.898597464133</v>
+        <v>2369.209626991337</v>
       </c>
       <c r="D40">
-        <v>-13.83320493588534</v>
+        <v>-9.475687011029349</v>
       </c>
       <c r="E40">
-        <v>1.514963727763618E-42</v>
+        <v>7.688073505504272E-21</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>-11233.44444443666</v>
+        <v>-11233.44444444344</v>
       </c>
       <c r="C41">
-        <v>1622.89859746401</v>
+        <v>2369.209626991366</v>
       </c>
       <c r="D41">
-        <v>-6.921840010207896</v>
+        <v>-4.741431199867557</v>
       </c>
       <c r="E41">
-        <v>5.171259540653364E-12</v>
+        <v>2.282196631227949E-06</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>-21839.55555554999</v>
+        <v>-21839.55555555582</v>
       </c>
       <c r="C42">
-        <v>1622.898597464213</v>
+        <v>2369.209626991459</v>
       </c>
       <c r="D42">
-        <v>-13.45712886170116</v>
+        <v>-9.2180764870894</v>
       </c>
       <c r="E42">
-        <v>2.094660550048412E-40</v>
+        <v>7.873188809756691E-20</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-21294.66666665978</v>
+        <v>-21294.66666666491</v>
       </c>
       <c r="C43">
-        <v>1622.898597464139</v>
+        <v>2369.20962699132</v>
       </c>
       <c r="D43">
-        <v>-13.12137843974588</v>
+        <v>-8.988088864769301</v>
       </c>
       <c r="E43">
-        <v>1.539007449779045E-38</v>
+        <v>5.986291173537647E-19</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-22053.66666665773</v>
+        <v>-22053.66666666562</v>
       </c>
       <c r="C44">
-        <v>1622.898597464022</v>
+        <v>2369.209626991355</v>
       </c>
       <c r="D44">
-        <v>-13.58906015515651</v>
+        <v>-9.308448866414338</v>
       </c>
       <c r="E44">
-        <v>3.768622300593567E-41</v>
+        <v>3.503776531275943E-20</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>14988.22222223059</v>
+        <v>14988.22222222318</v>
       </c>
       <c r="C45">
-        <v>1622.898597464453</v>
+        <v>2369.209626991372</v>
       </c>
       <c r="D45">
-        <v>9.23546440033132</v>
+        <v>6.326254144618062</v>
       </c>
       <c r="E45">
-        <v>4.070770301147424E-20</v>
+        <v>3.133141312294061E-10</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>-22003.22222222119</v>
+        <v>-22003.2222222226</v>
       </c>
       <c r="C46">
-        <v>1622.89859746447</v>
+        <v>2369.209626991478</v>
       </c>
       <c r="D46">
-        <v>-13.55797722457697</v>
+        <v>-9.287157190123031</v>
       </c>
       <c r="E46">
-        <v>5.652986434548696E-41</v>
+        <v>4.242789554740709E-20</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-12844.99904631181</v>
+        <v>-12844.99904631831</v>
       </c>
       <c r="C47">
-        <v>1623.276753775496</v>
+        <v>2369.761683401409</v>
       </c>
       <c r="D47">
-        <v>-7.913006218093302</v>
+        <v>-5.420375869982585</v>
       </c>
       <c r="E47">
-        <v>3.227609860017138E-15</v>
+        <v>6.716235765335753E-08</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>-14298.77777777244</v>
+        <v>-14298.77777777657</v>
       </c>
       <c r="C48">
-        <v>1622.898597464238</v>
+        <v>2369.20962699134</v>
       </c>
       <c r="D48">
-        <v>-8.810641527520037</v>
+        <v>-6.035252269312526</v>
       </c>
       <c r="E48">
-        <v>1.822739032998704E-18</v>
+        <v>1.908059570099981E-09</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>-10768.66285193403</v>
+        <v>-10768.66285193463</v>
       </c>
       <c r="C49">
-        <v>1628.938563850207</v>
+        <v>2378.027150482765</v>
       </c>
       <c r="D49">
-        <v>-6.610846529706377</v>
+        <v>-4.528401977979299</v>
       </c>
       <c r="E49">
-        <v>4.325819136814766E-11</v>
+        <v>6.317001480449662E-06</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-14697.33333332789</v>
+        <v>-14697.33333333089</v>
       </c>
       <c r="C50">
-        <v>1622.898597464222</v>
+        <v>2369.209626991199</v>
       </c>
       <c r="D50">
-        <v>-9.05622406494926</v>
+        <v>-6.203475271200851</v>
       </c>
       <c r="E50">
-        <v>2.066158606146844E-19</v>
+        <v>6.77854983533012E-10</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>-22908.11111109932</v>
+        <v>-22908.11111111194</v>
       </c>
       <c r="C51">
-        <v>1622.898597463862</v>
+        <v>2369.209626991522</v>
       </c>
       <c r="D51">
-        <v>-14.11555296609308</v>
+        <v>-9.669094220337604</v>
       </c>
       <c r="E51">
-        <v>3.45463174392745E-44</v>
+        <v>1.291395560493599E-21</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>-20948.22222221186</v>
+        <v>-20948.22222222406</v>
       </c>
       <c r="C52">
-        <v>1622.898597463923</v>
+        <v>2369.209626991621</v>
       </c>
       <c r="D52">
-        <v>-12.90790580196896</v>
+        <v>-8.841861008653648</v>
       </c>
       <c r="E52">
-        <v>2.246532596606108E-37</v>
+        <v>2.123017371229412E-18</v>
       </c>
     </row>
     <row r="53">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>-14380.66666666595</v>
+        <v>-14380.66666666453</v>
       </c>
       <c r="C53">
-        <v>1622.898597464604</v>
+        <v>2369.209626991203</v>
       </c>
       <c r="D53">
-        <v>-8.861099941260871</v>
+        <v>-6.069816069812012</v>
       </c>
       <c r="E53">
-        <v>1.170670493729913E-18</v>
+        <v>1.54584677320238E-09</v>
       </c>
     </row>
     <row r="54">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>-15629.333333325</v>
+        <v>-15629.3333333322</v>
       </c>
       <c r="C54">
-        <v>1622.898597464</v>
+        <v>2369.209626991359</v>
       </c>
       <c r="D54">
-        <v>-9.630505170038328</v>
+        <v>-6.59685540497308</v>
       </c>
       <c r="E54">
-        <v>1.021353187713973E-21</v>
+        <v>5.446902279958134E-11</v>
       </c>
     </row>
     <row r="55">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>-4641.888888883697</v>
+        <v>-4641.888888887856</v>
       </c>
       <c r="C55">
-        <v>1622.898597464399</v>
+        <v>2369.20962699125</v>
       </c>
       <c r="D55">
-        <v>-2.860245794861206</v>
+        <v>-1.959256300499998</v>
       </c>
       <c r="E55">
-        <v>0.004255087240769142</v>
+        <v>0.05023076642909167</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>107257.3333333529</v>
+        <v>107257.3333333374</v>
       </c>
       <c r="C56">
-        <v>1622.898597464331</v>
+        <v>2369.209626991447</v>
       </c>
       <c r="D56">
-        <v>66.08997845024646</v>
+        <v>45.27135636770928</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>4.705045678915668E-303</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-18165.22222221315</v>
+        <v>-18165.22222222352</v>
       </c>
       <c r="C57">
-        <v>1622.898597463969</v>
+        <v>2369.2096269916</v>
       </c>
       <c r="D57">
-        <v>-11.19307284546251</v>
+        <v>-7.667207669289082</v>
       </c>
       <c r="E57">
-        <v>1.17157704472196E-28</v>
+        <v>2.803169913673581E-14</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>-19540.2222222166</v>
+        <v>-19540.22222222271</v>
       </c>
       <c r="C58">
-        <v>1622.898597464199</v>
+        <v>2369.209626991513</v>
       </c>
       <c r="D58">
-        <v>-12.04032232990309</v>
+        <v>-8.247569991109406</v>
       </c>
       <c r="E58">
-        <v>8.015790426062953E-33</v>
+        <v>3.005253099417415E-16</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>-21305.55555554546</v>
+        <v>-21305.55555555704</v>
       </c>
       <c r="C59">
-        <v>1622.898597463956</v>
+        <v>2369.209626991585</v>
       </c>
       <c r="D59">
-        <v>-13.1280879710161</v>
+        <v>-8.992684865378823</v>
       </c>
       <c r="E59">
-        <v>1.413730272901536E-38</v>
+        <v>5.751045449694636E-19</v>
       </c>
     </row>
     <row r="60">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>-23455.11111110734</v>
+        <v>-23455.11111110868</v>
       </c>
       <c r="C60">
-        <v>1622.898597464297</v>
+        <v>2369.209626991255</v>
       </c>
       <c r="D60">
-        <v>-14.45260421554055</v>
+        <v>-9.899972903999705</v>
       </c>
       <c r="E60">
-        <v>3.462901227972399E-46</v>
+        <v>1.472618592291093E-22</v>
       </c>
     </row>
     <row r="61">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>-12235.3333333269</v>
+        <v>-12235.33333333218</v>
       </c>
       <c r="C61">
-        <v>1622.898597464127</v>
+        <v>2369.209626991341</v>
       </c>
       <c r="D61">
-        <v>-7.539185351719025</v>
+        <v>-5.164310153876013</v>
       </c>
       <c r="E61">
-        <v>5.818139046545359E-14</v>
+        <v>2.669504405962617E-07</v>
       </c>
     </row>
     <row r="62">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>-20118.22222221479</v>
+        <v>-20118.2222222219</v>
       </c>
       <c r="C62">
-        <v>1622.898597464086</v>
+        <v>2369.209626991435</v>
       </c>
       <c r="D62">
-        <v>-12.39647520408927</v>
+        <v>-8.491533207118202</v>
       </c>
       <c r="E62">
-        <v>1.175164388737326E-34</v>
+        <v>4.08495740107266E-17</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>-23158.99999999156</v>
+        <v>-23158.99999999824</v>
       </c>
       <c r="C63">
-        <v>1622.89859746406</v>
+        <v>2369.209626991318</v>
       </c>
       <c r="D63">
-        <v>-14.27014604373915</v>
+        <v>-9.77498982620971</v>
       </c>
       <c r="E63">
-        <v>4.234308104537269E-45</v>
+        <v>4.797259477025455E-22</v>
       </c>
     </row>
     <row r="64">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>21529.55555555801</v>
+        <v>21529.55555555721</v>
       </c>
       <c r="C64">
-        <v>1622.898597464083</v>
+        <v>2369.209626991471</v>
       </c>
       <c r="D64">
-        <v>13.26611261430614</v>
+        <v>9.087231163624979</v>
       </c>
       <c r="E64">
-        <v>2.443576996152764E-39</v>
+        <v>2.510803802820669E-19</v>
       </c>
     </row>
     <row r="65">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>-19208.44444443746</v>
+        <v>-19208.44444444341</v>
       </c>
       <c r="C65">
-        <v>1622.898597464099</v>
+        <v>2369.209626991375</v>
       </c>
       <c r="D65">
-        <v>-11.83588701996052</v>
+        <v>-8.107532666425948</v>
       </c>
       <c r="E65">
-        <v>8.59903355901144E-32</v>
+        <v>9.227089068258879E-16</v>
       </c>
     </row>
     <row r="66">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>-12924.44444444014</v>
+        <v>-12924.44444444147</v>
       </c>
       <c r="C66">
-        <v>1622.898597464315</v>
+        <v>2369.20962699111</v>
       </c>
       <c r="D66">
-        <v>-7.963802830709102</v>
+        <v>-5.455171335284282</v>
       </c>
       <c r="E66">
-        <v>2.156847069452602E-15</v>
+        <v>5.541855698093647E-08</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-21060.44444443965</v>
+        <v>-21060.44444444576</v>
       </c>
       <c r="C67">
-        <v>1622.898597464239</v>
+        <v>2369.209626991576</v>
       </c>
       <c r="D67">
-        <v>-12.97705505282115</v>
+        <v>-8.889227953707216</v>
       </c>
       <c r="E67">
-        <v>9.468315424445448E-38</v>
+        <v>1.411707112775943E-18</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-16612.11111110829</v>
+        <v>-16612.11111111179</v>
       </c>
       <c r="C68">
-        <v>1622.898597464414</v>
+        <v>2369.209626991544</v>
       </c>
       <c r="D68">
-        <v>-10.2360745995238</v>
+        <v>-7.011667908933024</v>
       </c>
       <c r="E68">
-        <v>2.71918344749379E-24</v>
+        <v>3.274249384776333E-12</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>-1119.218407487186</v>
+        <v>-1119.218407491229</v>
       </c>
       <c r="C69">
-        <v>1628.938563849994</v>
+        <v>2378.027150483</v>
       </c>
       <c r="D69">
-        <v>-0.6870844808547688</v>
+        <v>-0.4706499701922683</v>
       </c>
       <c r="E69">
-        <v>0.4920693649672681</v>
+        <v>0.6379454611851625</v>
       </c>
     </row>
     <row r="70">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>-12760.77396304334</v>
+        <v>-12760.77396304568</v>
       </c>
       <c r="C70">
-        <v>1628.938563849965</v>
+        <v>2378.027150482806</v>
       </c>
       <c r="D70">
-        <v>-7.8337969560273</v>
+        <v>-5.36611785969512</v>
       </c>
       <c r="E70">
-        <v>6.022285436272683E-15</v>
+        <v>9.043042552004795E-08</v>
       </c>
     </row>
     <row r="71">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>-16193.77777777329</v>
+        <v>-16193.77777777826</v>
       </c>
       <c r="C71">
-        <v>1622.898597464276</v>
+        <v>2369.209626991551</v>
       </c>
       <c r="D71">
-        <v>-9.978305362439473</v>
+        <v>-6.835097069203329</v>
       </c>
       <c r="E71">
-        <v>3.534277088571645E-23</v>
+        <v>1.104503598174616E-11</v>
       </c>
     </row>
     <row r="72">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>-17526.33237964335</v>
+        <v>-17526.33237964936</v>
       </c>
       <c r="C72">
-        <v>1623.276753775349</v>
+        <v>2369.761683401127</v>
       </c>
       <c r="D72">
-        <v>-10.79688496670783</v>
+        <v>-7.395820644080649</v>
       </c>
       <c r="E72">
-        <v>8.316965955896074E-27</v>
+        <v>2.108321623818463E-13</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>-19909.4444444366</v>
+        <v>-19909.44444444309</v>
       </c>
       <c r="C73">
-        <v>1622.898597464053</v>
+        <v>2369.209626991334</v>
       </c>
       <c r="D73">
-        <v>-12.26783021166397</v>
+        <v>-8.403411930132222</v>
       </c>
       <c r="E73">
-        <v>5.471909828359193E-34</v>
+        <v>8.450252397625288E-17</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>-23651.22126852959</v>
+        <v>-23651.22126853974</v>
       </c>
       <c r="C74">
-        <v>1623.276753775254</v>
+        <v>2369.76168340126</v>
       </c>
       <c r="D74">
-        <v>-14.57004864606356</v>
+        <v>-9.980421843344908</v>
       </c>
       <c r="E74">
-        <v>6.808149539849527E-47</v>
+        <v>6.837681050874754E-23</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>-7497.776824089759</v>
+        <v>-7497.776824094666</v>
       </c>
       <c r="C75">
-        <v>1623.276753775541</v>
+        <v>2369.761683401265</v>
       </c>
       <c r="D75">
-        <v>-4.618914677765734</v>
+        <v>-3.163937064478686</v>
       </c>
       <c r="E75">
-        <v>3.978948027522478E-06</v>
+        <v>0.001581458153908745</v>
       </c>
     </row>
     <row r="76">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>-21752.44349075178</v>
+        <v>-21752.44349076046</v>
       </c>
       <c r="C76">
-        <v>1623.276753775241</v>
+        <v>2369.761683401146</v>
       </c>
       <c r="D76">
-        <v>-13.40032957421605</v>
+        <v>-9.179169214830399</v>
       </c>
       <c r="E76">
-        <v>4.363176818993574E-40</v>
+        <v>1.113235217302798E-19</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>-13901.11015741981</v>
+        <v>-13901.11015742904</v>
       </c>
       <c r="C77">
-        <v>1623.276753775217</v>
+        <v>2369.761683401365</v>
       </c>
       <c r="D77">
-        <v>-8.563610687512353</v>
+        <v>-5.866037186269512</v>
       </c>
       <c r="E77">
-        <v>1.539045120666775E-17</v>
+        <v>5.26379884198209E-09</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>-12461.88793520085</v>
+        <v>-12461.88793520529</v>
       </c>
       <c r="C78">
-        <v>1623.276753775505</v>
+        <v>2369.761683401175</v>
       </c>
       <c r="D78">
-        <v>-7.676995254331292</v>
+        <v>-5.258709355667992</v>
       </c>
       <c r="E78">
-        <v>2.034406440986215E-14</v>
+        <v>1.616458702909487E-07</v>
       </c>
     </row>
     <row r="79">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>2168.778731466296</v>
+        <v>2168.778731461156</v>
       </c>
       <c r="C79">
-        <v>1623.276753775499</v>
+        <v>2369.761683401257</v>
       </c>
       <c r="D79">
-        <v>1.33604989193743</v>
+        <v>0.9151885384307358</v>
       </c>
       <c r="E79">
-        <v>0.1816090454544894</v>
+        <v>0.3602103407042043</v>
       </c>
     </row>
     <row r="80">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>-9252.66571297826</v>
+        <v>-9252.665712982918</v>
       </c>
       <c r="C80">
-        <v>1623.276753775498</v>
+        <v>2369.761683401146</v>
       </c>
       <c r="D80">
-        <v>-5.6999927408915</v>
+        <v>-3.904470976044833</v>
       </c>
       <c r="E80">
-        <v>1.284592775786245E-08</v>
+        <v>9.777415257528642E-05</v>
       </c>
     </row>
     <row r="81">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>-800.2212685339</v>
+        <v>-800.2212685392016</v>
       </c>
       <c r="C81">
-        <v>1623.27675377529</v>
+        <v>2369.761683401289</v>
       </c>
       <c r="D81">
-        <v>-0.4929666285633724</v>
+        <v>-0.3376800604652591</v>
       </c>
       <c r="E81">
-        <v>0.6220632542558312</v>
+        <v>0.7356421021158361</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-21700.33237964294</v>
+        <v>-21700.33237965079</v>
       </c>
       <c r="C82">
-        <v>1623.276753775345</v>
+        <v>2369.761683401273</v>
       </c>
       <c r="D82">
-        <v>-13.36822715484175</v>
+        <v>-9.15717919301688</v>
       </c>
       <c r="E82">
-        <v>6.597575998564542E-40</v>
+        <v>1.353197367579317E-19</v>
       </c>
     </row>
     <row r="83">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>-16225.6666666618</v>
+        <v>-16225.66666666427</v>
       </c>
       <c r="C83">
-        <v>1622.898597464237</v>
+        <v>2369.209626991223</v>
       </c>
       <c r="D83">
-        <v>-9.99795470401801</v>
+        <v>-6.848556785272753</v>
       </c>
       <c r="E83">
-        <v>2.912894461718906E-23</v>
+        <v>1.007736635604976E-11</v>
       </c>
     </row>
     <row r="84">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>-23136.99618526202</v>
+        <v>-23136.99618527093</v>
       </c>
       <c r="C84">
-        <v>1628.93856384974</v>
+        <v>2378.027150483108</v>
       </c>
       <c r="D84">
-        <v>-14.20372548034062</v>
+        <v>-9.729492020547594</v>
       </c>
       <c r="E84">
-        <v>1.04603353244076E-44</v>
+        <v>7.349832088304769E-22</v>
       </c>
     </row>
     <row r="85">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>-5939.773963041449</v>
+        <v>-5939.773963047135</v>
       </c>
       <c r="C85">
-        <v>1628.938563849752</v>
+        <v>2378.027150483097</v>
       </c>
       <c r="D85">
-        <v>-3.646407602385987</v>
+        <v>-2.497773821396644</v>
       </c>
       <c r="E85">
-        <v>0.0002693197678616645</v>
+        <v>0.01258268659486237</v>
       </c>
     </row>
     <row r="86">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>-20455.55555555078</v>
+        <v>-20455.55555555606</v>
       </c>
       <c r="C86">
-        <v>1622.898597464264</v>
+        <v>2369.209626991504</v>
       </c>
       <c r="D86">
-        <v>-12.60433374427216</v>
+        <v>-8.633915430071571</v>
       </c>
       <c r="E86">
-        <v>9.49013936172327E-36</v>
+        <v>1.244131396569594E-17</v>
       </c>
     </row>
     <row r="87">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>-23080.21840748949</v>
+        <v>-23080.2184074923</v>
       </c>
       <c r="C87">
-        <v>1628.93856385001</v>
+        <v>2378.027150483037</v>
       </c>
       <c r="D87">
-        <v>-14.16886979023886</v>
+        <v>-9.705616019902937</v>
       </c>
       <c r="E87">
-        <v>1.678809323459446E-44</v>
+        <v>9.187636748449357E-22</v>
       </c>
     </row>
     <row r="88">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>-22785.55174082127</v>
+        <v>-22785.55174082453</v>
       </c>
       <c r="C88">
-        <v>1628.938563849939</v>
+        <v>2378.027150482962</v>
       </c>
       <c r="D88">
-        <v>-13.98797489757282</v>
+        <v>-9.581703781723824</v>
       </c>
       <c r="E88">
-        <v>1.923175213207464E-43</v>
+        <v>2.903013140846449E-21</v>
       </c>
     </row>
     <row r="89">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>-17605.6628519336</v>
+        <v>-17605.66285193497</v>
       </c>
       <c r="C89">
-        <v>1628.938563850026</v>
+        <v>2378.02715048289</v>
       </c>
       <c r="D89">
-        <v>-10.80805823046039</v>
+        <v>-7.403474282604347</v>
       </c>
       <c r="E89">
-        <v>7.389317588692322E-27</v>
+        <v>1.993505454467309E-13</v>
       </c>
     </row>
     <row r="90">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>-22398.55174082215</v>
+        <v>-22398.55174082391</v>
       </c>
       <c r="C90">
-        <v>1628.938563849966</v>
+        <v>2378.027150482896</v>
       </c>
       <c r="D90">
-        <v>-13.75039687677575</v>
+        <v>-9.418963839952598</v>
       </c>
       <c r="E90">
-        <v>4.532345375876134E-42</v>
+        <v>1.289457522295188E-20</v>
       </c>
     </row>
     <row r="91">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>-23162.88507415367</v>
+        <v>-23162.88507415841</v>
       </c>
       <c r="C91">
-        <v>1628.938563849881</v>
+        <v>2378.027150483008</v>
       </c>
       <c r="D91">
-        <v>-14.21961858365599</v>
+        <v>-9.740378729256197</v>
       </c>
       <c r="E91">
-        <v>8.427802976811526E-45</v>
+        <v>6.637616406081312E-22</v>
       </c>
     </row>
     <row r="92">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>-7433.107296375811</v>
+        <v>-7433.107296379906</v>
       </c>
       <c r="C92">
-        <v>1628.938563849929</v>
+        <v>2378.027150482927</v>
       </c>
       <c r="D92">
-        <v>-4.563159999606104</v>
+        <v>-3.125745345199444</v>
       </c>
       <c r="E92">
-        <v>5.19024422367074E-06</v>
+        <v>0.001800735481549955</v>
       </c>
     </row>
     <row r="93">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>-22780.55174081833</v>
+        <v>-22780.55174082357</v>
       </c>
       <c r="C93">
-        <v>1628.938563849774</v>
+        <v>2378.027150482863</v>
       </c>
       <c r="D93">
-        <v>-13.9849054140996</v>
+        <v>-9.579601198496801</v>
       </c>
       <c r="E93">
-        <v>2.003933870328898E-43</v>
+        <v>2.959907150041193E-21</v>
       </c>
     </row>
     <row r="94">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B94">
-        <v>-15446.77396304456</v>
+        <v>-15446.77396304673</v>
       </c>
       <c r="C94">
-        <v>1628.938563850059</v>
+        <v>2378.027150482942</v>
       </c>
       <c r="D94">
-        <v>-9.482723477634119</v>
+        <v>-6.495625569249586</v>
       </c>
       <c r="E94">
-        <v>4.123324141537728E-21</v>
+        <v>1.056327756141754E-10</v>
       </c>
     </row>
     <row r="95">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>-22984.37079882889</v>
+        <v>-22984.37079883597</v>
       </c>
       <c r="C95">
-        <v>1817.217306370612</v>
+        <v>2652.888321744765</v>
       </c>
       <c r="D95">
-        <v>-12.64811352954469</v>
+        <v>-8.66390439825205</v>
       </c>
       <c r="E95">
-        <v>5.558869777450015E-36</v>
+        <v>9.663483559866388E-18</v>
       </c>
     </row>
     <row r="96">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>-20914.52640894301</v>
+        <v>-20914.52640895011</v>
       </c>
       <c r="C96">
-        <v>1677.47315134879</v>
+        <v>2448.880999346042</v>
       </c>
       <c r="D96">
-        <v>-12.46787550198729</v>
+        <v>-8.540442109900479</v>
       </c>
       <c r="E96">
-        <v>4.972535323200182E-35</v>
+        <v>2.720818467289499E-17</v>
       </c>
     </row>
     <row r="97">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B97">
-        <v>-10470.88793519929</v>
+        <v>-10470.88793520585</v>
       </c>
       <c r="C97">
-        <v>1623.276753775315</v>
+        <v>2369.761683401248</v>
       </c>
       <c r="D97">
-        <v>-6.450463798515417</v>
+        <v>-4.418540483858823</v>
       </c>
       <c r="E97">
-        <v>1.248100450879094E-10</v>
+        <v>1.050466548240547E-05</v>
       </c>
     </row>
     <row r="98">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B98">
-        <v>-16569.55174082271</v>
+        <v>-16569.55174082357</v>
       </c>
       <c r="C98">
-        <v>1628.938563850043</v>
+        <v>2378.027150482841</v>
       </c>
       <c r="D98">
-        <v>-10.17199304414532</v>
+        <v>-6.967772313894418</v>
       </c>
       <c r="E98">
-        <v>5.173874034496476E-24</v>
+        <v>4.44154157858686E-12</v>
       </c>
     </row>
     <row r="99">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B99">
-        <v>-18743.77396303974</v>
+        <v>-18743.773963046</v>
       </c>
       <c r="C99">
-        <v>1628.938563849711</v>
+        <v>2378.027150482874</v>
       </c>
       <c r="D99">
-        <v>-11.50674087962047</v>
+        <v>-7.882068949145492</v>
       </c>
       <c r="E99">
-        <v>3.626471121215867E-30</v>
+        <v>5.414700808285614E-15</v>
       </c>
     </row>
     <row r="100">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B100">
-        <v>-24215.44062970995</v>
+        <v>-24215.44062971239</v>
       </c>
       <c r="C100">
-        <v>1628.93856384992</v>
+        <v>2378.027150482877</v>
       </c>
       <c r="D100">
-        <v>-14.86577896005966</v>
+        <v>-10.18299586057932</v>
       </c>
       <c r="E100">
-        <v>1.075864362145433E-48</v>
+        <v>9.670536592388186E-24</v>
       </c>
     </row>
     <row r="101">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B101">
-        <v>-23160.66666665868</v>
+        <v>-23160.6666666656</v>
       </c>
       <c r="C101">
-        <v>1622.898597464067</v>
+        <v>2369.209626991372</v>
       </c>
       <c r="D101">
-        <v>-14.27117301281141</v>
+        <v>-9.775693295690777</v>
       </c>
       <c r="E101">
-        <v>4.175388101384203E-45</v>
+        <v>4.765653063976575E-22</v>
       </c>
     </row>
     <row r="102">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B102">
-        <v>-17010.99904631416</v>
+        <v>-17010.99904631506</v>
       </c>
       <c r="C102">
-        <v>1623.276753775649</v>
+        <v>2369.761683401028</v>
       </c>
       <c r="D102">
-        <v>-10.47942010304007</v>
+        <v>-7.17835855203012</v>
       </c>
       <c r="E102">
-        <v>2.283826443516522E-25</v>
+        <v>1.012388988553425E-12</v>
       </c>
     </row>
     <row r="103">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B103">
-        <v>-21858.7768240864</v>
+        <v>-21858.77682409442</v>
       </c>
       <c r="C103">
-        <v>1623.276753775309</v>
+        <v>2369.761683401201</v>
       </c>
       <c r="D103">
-        <v>-13.46583493741823</v>
+        <v>-9.224040112219893</v>
       </c>
       <c r="E103">
-        <v>1.871363293352133E-40</v>
+        <v>7.465209404300589E-20</v>
       </c>
     </row>
     <row r="104">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B104">
-        <v>-16808.55460186392</v>
+        <v>-16808.55460187242</v>
       </c>
       <c r="C104">
-        <v>1623.276753775234</v>
+        <v>2369.761683401229</v>
       </c>
       <c r="D104">
-        <v>-10.35470665293055</v>
+        <v>-7.092930364941905</v>
       </c>
       <c r="E104">
-        <v>8.183310664551006E-25</v>
+        <v>1.853373589321946E-12</v>
       </c>
     </row>
     <row r="105">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B105">
-        <v>-18890.11015742302</v>
+        <v>-18890.11015742935</v>
       </c>
       <c r="C105">
-        <v>1623.276753775484</v>
+        <v>2369.761683401352</v>
       </c>
       <c r="D105">
-        <v>-11.63702376288432</v>
+        <v>-7.971312174444528</v>
       </c>
       <c r="E105">
-        <v>8.342642233565559E-31</v>
+        <v>2.702265832810978E-15</v>
       </c>
     </row>
     <row r="106">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B106">
-        <v>-10236.22126853522</v>
+        <v>-10236.22126853855</v>
       </c>
       <c r="C106">
-        <v>1623.27675377563</v>
+        <v>2369.761683401162</v>
       </c>
       <c r="D106">
-        <v>-6.305900238345973</v>
+        <v>-4.319515055137183</v>
       </c>
       <c r="E106">
-        <v>3.176634617453724E-10</v>
+        <v>1.645493435478149E-05</v>
       </c>
     </row>
     <row r="107">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B107">
-        <v>-4349.332379645034</v>
+        <v>-4349.332379649967</v>
       </c>
       <c r="C107">
-        <v>1623.276753775558</v>
+        <v>2369.761683401177</v>
       </c>
       <c r="D107">
-        <v>-2.679353578820728</v>
+        <v>-1.835345895798108</v>
       </c>
       <c r="E107">
-        <v>0.007406679134525213</v>
+        <v>0.06661276288321268</v>
       </c>
     </row>
     <row r="108">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B108">
-        <v>-19712.32951860028</v>
+        <v>-19712.3295186013</v>
       </c>
       <c r="C108">
-        <v>1628.938563850016</v>
+        <v>2378.027150482866</v>
       </c>
       <c r="D108">
-        <v>-12.10133393368129</v>
+        <v>-8.289362682254763</v>
       </c>
       <c r="E108">
-        <v>3.919844640912506E-33</v>
+        <v>2.143025296722685E-16</v>
       </c>
     </row>
     <row r="109">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B109">
-        <v>-18933.7768240888</v>
+        <v>-18933.77682409403</v>
       </c>
       <c r="C109">
-        <v>1623.276753775444</v>
+        <v>2369.761683401156</v>
       </c>
       <c r="D109">
-        <v>-11.66392408444975</v>
+        <v>-7.989738781209295</v>
       </c>
       <c r="E109">
-        <v>6.147674756805213E-31</v>
+        <v>2.338949264085853E-15</v>
       </c>
     </row>
     <row r="110">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B110">
-        <v>-2991.218407487135</v>
+        <v>-2991.218407491597</v>
       </c>
       <c r="C110">
-        <v>1628.938563850011</v>
+        <v>2378.027150483091</v>
       </c>
       <c r="D110">
-        <v>-1.836299093083881</v>
+        <v>-1.257857130388077</v>
       </c>
       <c r="E110">
-        <v>0.06638768006803594</v>
+        <v>0.2086000572719969</v>
       </c>
     </row>
     <row r="111">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B111">
-        <v>541.4453981328016</v>
+        <v>541.445398127626</v>
       </c>
       <c r="C111">
-        <v>1623.276753775633</v>
+        <v>2369.761683401294</v>
       </c>
       <c r="D111">
-        <v>0.3335508851915954</v>
+        <v>0.2284809489157134</v>
       </c>
       <c r="E111">
-        <v>0.7387359862401288</v>
+        <v>0.8192972801245549</v>
       </c>
     </row>
     <row r="112">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B112">
-        <v>-23029.22126853319</v>
+        <v>-23029.22126853804</v>
       </c>
       <c r="C112">
-        <v>1623.276753775445</v>
+        <v>2369.761683401141</v>
       </c>
       <c r="D112">
-        <v>-14.18687307322762</v>
+        <v>-9.71794819278449</v>
       </c>
       <c r="E112">
-        <v>1.315036977028567E-44</v>
+        <v>8.187790654963912E-22</v>
       </c>
     </row>
     <row r="113">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B113">
-        <v>17548.55555555931</v>
+        <v>17548.55555555766</v>
       </c>
       <c r="C113">
-        <v>1622.898597464058</v>
+        <v>2369.209626991489</v>
       </c>
       <c r="D113">
-        <v>10.81309428881181</v>
+        <v>7.406923961321849</v>
       </c>
       <c r="E113">
-        <v>7.00549430720244E-27</v>
+        <v>1.943786645032157E-13</v>
       </c>
     </row>
     <row r="114">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B114">
-        <v>-12659.33333332931</v>
+        <v>-12659.33333333197</v>
       </c>
       <c r="C114">
-        <v>1622.898597464357</v>
+        <v>2369.209626991307</v>
       </c>
       <c r="D114">
-        <v>-7.800446283648562</v>
+        <v>-5.343272789840991</v>
       </c>
       <c r="E114">
-        <v>7.817142798555531E-15</v>
+        <v>1.024129435733581E-07</v>
       </c>
     </row>
     <row r="115">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B115">
-        <v>-22069.66571297382</v>
+        <v>-22069.6657129827</v>
       </c>
       <c r="C115">
-        <v>1623.276753775214</v>
+        <v>2369.761683401147</v>
       </c>
       <c r="D115">
-        <v>-13.59575048533588</v>
+        <v>-9.313031714356908</v>
       </c>
       <c r="E115">
-        <v>3.453282444301996E-41</v>
+        <v>3.362207007643027E-20</v>
       </c>
     </row>
     <row r="116">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B116">
-        <v>-21253.77682408697</v>
+        <v>-21253.77682409511</v>
       </c>
       <c r="C116">
-        <v>1623.276753775334</v>
+        <v>2369.761683401252</v>
       </c>
       <c r="D116">
-        <v>-13.09313200885556</v>
+        <v>-8.968740178797292</v>
       </c>
       <c r="E116">
-        <v>2.199326899715119E-38</v>
+        <v>7.085479008036884E-19</v>
       </c>
     </row>
     <row r="117">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B117">
-        <v>-16947.99618526496</v>
+        <v>-16947.99618526943</v>
       </c>
       <c r="C117">
-        <v>1628.938563849891</v>
+        <v>2378.027150482994</v>
       </c>
       <c r="D117">
-        <v>-10.40431883766658</v>
+        <v>-7.126914502144001</v>
       </c>
       <c r="E117">
-        <v>4.933733069375569E-25</v>
+        <v>1.458260850998286E-12</v>
       </c>
     </row>
     <row r="118">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B118">
-        <v>-1907.110157423008</v>
+        <v>-1907.110157427783</v>
       </c>
       <c r="C118">
-        <v>1623.276753775508</v>
+        <v>2369.761683401155</v>
       </c>
       <c r="D118">
-        <v>-1.17485213349316</v>
+        <v>-0.8047687540844359</v>
       </c>
       <c r="E118">
-        <v>0.2401238809632993</v>
+        <v>0.4210551663053117</v>
       </c>
     </row>
     <row r="119">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B119">
-        <v>3364.888888894516</v>
+        <v>3364.888888889599</v>
       </c>
       <c r="C119">
-        <v>1622.898597464079</v>
+        <v>2369.209626991295</v>
       </c>
       <c r="D119">
-        <v>2.073382091864796</v>
+        <v>1.420257984162733</v>
       </c>
       <c r="E119">
-        <v>0.03820066289893187</v>
+        <v>0.155698842069746</v>
       </c>
     </row>
     <row r="120">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B120">
-        <v>34978.66666667007</v>
+        <v>34978.66666666623</v>
       </c>
       <c r="C120">
-        <v>1622.898597464069</v>
+        <v>2369.209626991356</v>
       </c>
       <c r="D120">
-        <v>21.55320530890069</v>
+        <v>14.76385469152656</v>
       </c>
       <c r="E120">
-        <v>1.454892341821864E-97</v>
+        <v>9.499459833658248E-47</v>
       </c>
     </row>
     <row r="121">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B121">
-        <v>-11059.22222221527</v>
+        <v>-11059.22222222137</v>
       </c>
       <c r="C121">
-        <v>1622.898597464057</v>
+        <v>2369.209626991369</v>
       </c>
       <c r="D121">
-        <v>-6.814487509876726</v>
+        <v>-4.667895190120998</v>
       </c>
       <c r="E121">
-        <v>1.087726672350587E-11</v>
+        <v>3.258750833292202E-06</v>
       </c>
     </row>
     <row r="122">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B122">
-        <v>49914.00095368885</v>
+        <v>49914.0009536788</v>
       </c>
       <c r="C122">
-        <v>1623.27675377547</v>
+        <v>2369.761683401068</v>
       </c>
       <c r="D122">
-        <v>30.74891625078548</v>
+        <v>21.06287788485233</v>
       </c>
       <c r="E122">
-        <v>1.507636478446682E-186</v>
+        <v>1.429264903585584E-88</v>
       </c>
     </row>
     <row r="123">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B123">
-        <v>-14677.66571297926</v>
+        <v>-14677.66571298415</v>
       </c>
       <c r="C123">
-        <v>1623.276753775551</v>
+        <v>2369.761683401311</v>
       </c>
       <c r="D123">
-        <v>-9.041998339987765</v>
+        <v>-6.19373070962872</v>
       </c>
       <c r="E123">
-        <v>2.347475717720325E-19</v>
+        <v>7.202445709762677E-10</v>
       </c>
     </row>
     <row r="124">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B124">
-        <v>-23831.11015742434</v>
+        <v>-23831.11015742696</v>
       </c>
       <c r="C124">
-        <v>1623.276753775544</v>
+        <v>2369.761683401139</v>
       </c>
       <c r="D124">
-        <v>-14.68086701913034</v>
+        <v>-10.05633196128987</v>
       </c>
       <c r="E124">
-        <v>1.451474403803606E-47</v>
+        <v>3.298755448310156E-23</v>
       </c>
     </row>
     <row r="125">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B125">
-        <v>-18487.66571297784</v>
+        <v>-18487.6657129841</v>
       </c>
       <c r="C125">
-        <v>1623.276753775441</v>
+        <v>2369.761683401274</v>
       </c>
       <c r="D125">
-        <v>-11.38910273308538</v>
+        <v>-7.801487315150234</v>
       </c>
       <c r="E125">
-        <v>1.349075956352763E-29</v>
+        <v>1.008041469477166E-14</v>
       </c>
     </row>
     <row r="126">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B126">
-        <v>-23515.99618526636</v>
+        <v>-23515.99618526992</v>
       </c>
       <c r="C126">
-        <v>1628.938563849974</v>
+        <v>2378.027150483038</v>
       </c>
       <c r="D126">
-        <v>-14.4363923275821</v>
+        <v>-9.888867829155453</v>
       </c>
       <c r="E126">
-        <v>4.330639989584437E-46</v>
+        <v>1.636423219130514E-22</v>
       </c>
     </row>
     <row r="127">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B127">
-        <v>12023.22317591147</v>
+        <v>12023.22317590498</v>
       </c>
       <c r="C127">
-        <v>1623.276753775546</v>
+        <v>2369.761683401117</v>
       </c>
       <c r="D127">
-        <v>7.40676113789402</v>
+        <v>5.07360012617348</v>
       </c>
       <c r="E127">
-        <v>1.570273955633012E-13</v>
+        <v>4.289464095189351E-07</v>
       </c>
     </row>
     <row r="128">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B128">
-        <v>-13698.66571297729</v>
+        <v>-13698.66571298275</v>
       </c>
       <c r="C128">
-        <v>1623.276753775383</v>
+        <v>2369.761683401131</v>
       </c>
       <c r="D128">
-        <v>-8.438897237404049</v>
+        <v>-5.780608999180941</v>
       </c>
       <c r="E128">
-        <v>4.421932633215502E-17</v>
+        <v>8.698421963587147E-09</v>
       </c>
     </row>
     <row r="129">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B129">
-        <v>25701.33428701992</v>
+        <v>25701.33428701763</v>
       </c>
       <c r="C129">
-        <v>1623.276753775395</v>
+        <v>2369.7616834013</v>
       </c>
       <c r="D129">
-        <v>15.83299596155992</v>
+        <v>10.84553542537185</v>
       </c>
       <c r="E129">
-        <v>8.275845904845582E-55</v>
+        <v>1.268574438019785E-26</v>
       </c>
     </row>
     <row r="130">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B130">
-        <v>-18789.44349075695</v>
+        <v>-18789.44349076255</v>
       </c>
       <c r="C130">
-        <v>1623.276753775525</v>
+        <v>2369.761683401343</v>
       </c>
       <c r="D130">
-        <v>-11.57500928110701</v>
+        <v>-7.928832516100889</v>
       </c>
       <c r="E130">
-        <v>1.682293561138183E-30</v>
+        <v>3.765220108455443E-15</v>
       </c>
     </row>
     <row r="131">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B131">
-        <v>-11406.44444443855</v>
+        <v>-11406.44444444387</v>
       </c>
       <c r="C131">
-        <v>1622.898597464169</v>
+        <v>2369.209626991449</v>
       </c>
       <c r="D131">
-        <v>-7.028439399887024</v>
+        <v>-4.814451331994795</v>
       </c>
       <c r="E131">
-        <v>2.444859595711238E-12</v>
+        <v>1.594345604742504E-06</v>
       </c>
     </row>
     <row r="132">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B132">
-        <v>-19497.3323796451</v>
+        <v>-19497.33237965091</v>
       </c>
       <c r="C132">
-        <v>1623.276753775479</v>
+        <v>2369.761683401289</v>
       </c>
       <c r="D132">
-        <v>-12.01109566455471</v>
+        <v>-8.227549848669442</v>
       </c>
       <c r="E132">
-        <v>1.127876815087088E-32</v>
+        <v>3.531764414762835E-16</v>
       </c>
     </row>
     <row r="133">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B133">
-        <v>-14052.88888888338</v>
+        <v>-14052.88888888817</v>
       </c>
       <c r="C133">
-        <v>1622.898597464225</v>
+        <v>2369.209626991404</v>
       </c>
       <c r="D133">
-        <v>-8.659129357090443</v>
+        <v>-5.931467071883191</v>
       </c>
       <c r="E133">
-        <v>6.790861930473183E-18</v>
+        <v>3.566558542487886E-09</v>
       </c>
     </row>
     <row r="134">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B134">
-        <v>-14547.33237964459</v>
+        <v>-14547.33237965018</v>
       </c>
       <c r="C134">
-        <v>1623.276753775448</v>
+        <v>2369.761683401244</v>
       </c>
       <c r="D134">
-        <v>-8.961708067222752</v>
+        <v>-6.138732211574478</v>
       </c>
       <c r="E134">
-        <v>4.807949898699742E-19</v>
+        <v>1.012632836024868E-09</v>
       </c>
     </row>
     <row r="135">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B135">
-        <v>-20127.55174081693</v>
+        <v>-20127.55174082537</v>
       </c>
       <c r="C135">
-        <v>1628.938563849667</v>
+        <v>2378.027150483028</v>
       </c>
       <c r="D135">
-        <v>-12.35623748341345</v>
+        <v>-8.463970538240922</v>
       </c>
       <c r="E135">
-        <v>1.904291432152327E-34</v>
+        <v>5.131514829470171E-17</v>
       </c>
     </row>
     <row r="136">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B136">
-        <v>-22129.66571297611</v>
+        <v>-22129.6657129831</v>
       </c>
       <c r="C136">
-        <v>1623.276753775349</v>
+        <v>2369.761683401185</v>
       </c>
       <c r="D136">
-        <v>-13.63271275924322</v>
+        <v>-9.338350716018684</v>
       </c>
       <c r="E136">
-        <v>2.129425431173644E-41</v>
+        <v>2.67623586058236E-20</v>
       </c>
     </row>
     <row r="137">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B137">
-        <v>-22392.56591321033</v>
+        <v>-22392.56591321576</v>
       </c>
       <c r="C137">
-        <v>2297.999038225076</v>
+        <v>3354.763786650839</v>
       </c>
       <c r="D137">
-        <v>-9.744375668018492</v>
+        <v>-6.674856215605846</v>
       </c>
       <c r="E137">
-        <v>3.437230653478138E-22</v>
+        <v>3.248907409536325E-11</v>
       </c>
     </row>
     <row r="138">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B138">
-        <v>-23721.11015742019</v>
+        <v>-23721.11015742831</v>
       </c>
       <c r="C138">
-        <v>1623.276753775343</v>
+        <v>2369.761683401243</v>
       </c>
       <c r="D138">
-        <v>-14.61310285029999</v>
+        <v>-10.00991379157678</v>
       </c>
       <c r="E138">
-        <v>3.739295842728727E-47</v>
+        <v>5.154336124433434E-23</v>
       </c>
     </row>
     <row r="139">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B139">
-        <v>-7951.332379644889</v>
+        <v>-7951.332379649683</v>
       </c>
       <c r="C139">
-        <v>1623.276753775478</v>
+        <v>2369.761683401166</v>
       </c>
       <c r="D139">
-        <v>-4.898322089040812</v>
+        <v>-3.35532996222542</v>
       </c>
       <c r="E139">
-        <v>1.004845347694027E-06</v>
+        <v>0.000808514975282567</v>
       </c>
     </row>
     <row r="140">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B140">
-        <v>-15607.11015742209</v>
+        <v>-15607.11015742728</v>
       </c>
       <c r="C140">
-        <v>1623.27675377542</v>
+        <v>2369.761683401151</v>
       </c>
       <c r="D140">
-        <v>-9.614571342269915</v>
+        <v>-6.585940800185233</v>
       </c>
       <c r="E140">
-        <v>1.188348359708829E-21</v>
+        <v>5.852740763204621E-11</v>
       </c>
     </row>
     <row r="141">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B141">
-        <v>-20470.44349075627</v>
+        <v>-20470.44349076089</v>
       </c>
       <c r="C141">
-        <v>1623.276753775487</v>
+        <v>2369.76168340118</v>
       </c>
       <c r="D141">
-        <v>-12.61056898840277</v>
+        <v>-8.63818654599093</v>
       </c>
       <c r="E141">
-        <v>8.794973780979179E-36</v>
+        <v>1.20021401930686E-17</v>
       </c>
     </row>
     <row r="142">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>-15862.5517408199</v>
+        <v>-15862.55174082369</v>
       </c>
       <c r="C142">
-        <v>1628.93856384986</v>
+        <v>2378.027150482857</v>
       </c>
       <c r="D142">
-        <v>-9.737968081085935</v>
+        <v>-6.670467045593994</v>
       </c>
       <c r="E142">
-        <v>3.655617593763205E-22</v>
+        <v>3.345254349580588E-11</v>
       </c>
     </row>
     <row r="143">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B143">
-        <v>-22028.55174081994</v>
+        <v>-22028.55174082429</v>
       </c>
       <c r="C143">
-        <v>1628.938563849853</v>
+        <v>2378.027150482939</v>
       </c>
       <c r="D143">
-        <v>-13.52325509978559</v>
+        <v>-9.263372681153218</v>
       </c>
       <c r="E143">
-        <v>8.883019927698183E-41</v>
+        <v>5.251669042905609E-20</v>
       </c>
     </row>
     <row r="144">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B144">
-        <v>-22655.88507415345</v>
+        <v>-22655.88507415824</v>
       </c>
       <c r="C144">
-        <v>1628.938563849865</v>
+        <v>2378.027150482993</v>
       </c>
       <c r="D144">
-        <v>-13.90837295951057</v>
+        <v>-9.527176790036517</v>
       </c>
       <c r="E144">
-        <v>5.574020450487555E-43</v>
+        <v>4.796375267238044E-21</v>
       </c>
     </row>
     <row r="145">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B145">
-        <v>-20832.66285193153</v>
+        <v>-20832.66285193561</v>
       </c>
       <c r="C145">
-        <v>1628.938563849893</v>
+        <v>2378.027150482959</v>
       </c>
       <c r="D145">
-        <v>-12.78910286382738</v>
+        <v>-8.76048149732212</v>
       </c>
       <c r="E145">
-        <v>9.816246615829355E-37</v>
+        <v>4.260185179350468E-18</v>
       </c>
     </row>
     <row r="146">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B146">
-        <v>-5858.665712978349</v>
+        <v>-5858.665712983305</v>
       </c>
       <c r="C146">
-        <v>1623.276753775456</v>
+        <v>2369.761683401184</v>
       </c>
       <c r="D146">
-        <v>-3.609160113549414</v>
+        <v>-2.472259448711609</v>
       </c>
       <c r="E146">
-        <v>0.0003109549408791622</v>
+        <v>0.01351436509013044</v>
       </c>
     </row>
     <row r="147">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B147">
-        <v>-18637.21840748836</v>
+        <v>-18637.21840749157</v>
       </c>
       <c r="C147">
-        <v>1628.938563849972</v>
+        <v>2378.02715048299</v>
       </c>
       <c r="D147">
-        <v>-11.4413267762779</v>
+        <v>-7.837260564374237</v>
       </c>
       <c r="E147">
-        <v>7.540735215704643E-30</v>
+        <v>7.655403253252786E-15</v>
       </c>
     </row>
     <row r="148">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B148">
-        <v>9880.112064798979</v>
+        <v>9880.112064794313</v>
       </c>
       <c r="C148">
-        <v>1623.276753775467</v>
+        <v>2369.761683401116</v>
       </c>
       <c r="D148">
-        <v>6.086523472857914</v>
+        <v>4.169242896447813</v>
       </c>
       <c r="E148">
-        <v>1.262422446214243E-09</v>
+        <v>3.195403699090056E-05</v>
       </c>
     </row>
     <row r="149">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B149">
-        <v>-5716.221268534399</v>
+        <v>-5716.221268539241</v>
       </c>
       <c r="C149">
-        <v>1623.276753775565</v>
+        <v>2369.761683401301</v>
       </c>
       <c r="D149">
-        <v>-3.521408937347923</v>
+        <v>-2.412150263285037</v>
       </c>
       <c r="E149">
-        <v>0.0004340567087712438</v>
+        <v>0.01595423463130617</v>
       </c>
     </row>
     <row r="150">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B150">
-        <v>-18448.77682408831</v>
+        <v>-18448.77682409469</v>
       </c>
       <c r="C150">
-        <v>1623.276753775396</v>
+        <v>2369.76168340123</v>
       </c>
       <c r="D150">
-        <v>-11.3651457037011</v>
+        <v>-7.785076851110132</v>
       </c>
       <c r="E150">
-        <v>1.760219358538964E-29</v>
+        <v>1.14323671100256E-14</v>
       </c>
     </row>
     <row r="151">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B151">
-        <v>-16144.55555554894</v>
+        <v>-16144.55555555394</v>
       </c>
       <c r="C151">
-        <v>1622.898597464126</v>
+        <v>2369.209626991309</v>
       </c>
       <c r="D151">
-        <v>-9.947975542511257</v>
+        <v>-6.814321270531107</v>
       </c>
       <c r="E151">
-        <v>4.760137367379575E-23</v>
+        <v>1.272012084457628E-11</v>
       </c>
     </row>
     <row r="152">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B152">
-        <v>-23023.77777777344</v>
+        <v>-23023.77777777732</v>
       </c>
       <c r="C152">
-        <v>1622.898597464262</v>
+        <v>2369.209626991413</v>
       </c>
       <c r="D152">
-        <v>-14.18682461969436</v>
+        <v>-9.71791500231852</v>
       </c>
       <c r="E152">
-        <v>1.31590210766122E-44</v>
+        <v>8.190331385343579E-22</v>
       </c>
     </row>
     <row r="153">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B153">
-        <v>-20931.66571298066</v>
+        <v>-20931.66571298353</v>
       </c>
       <c r="C153">
-        <v>1623.276753775616</v>
+        <v>2369.761683401217</v>
       </c>
       <c r="D153">
-        <v>-12.89469935689969</v>
+        <v>-8.832814649505686</v>
       </c>
       <c r="E153">
-        <v>2.648321604203002E-37</v>
+        <v>2.294569791103479E-18</v>
       </c>
     </row>
     <row r="154">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B154">
-        <v>-6893.332379644361</v>
+        <v>-6893.332379649538</v>
       </c>
       <c r="C154">
-        <v>1623.276753775335</v>
+        <v>2369.761683401156</v>
       </c>
       <c r="D154">
-        <v>-4.246553992479838</v>
+        <v>-2.908871566256406</v>
       </c>
       <c r="E154">
-        <v>2.220215709047269E-05</v>
+        <v>0.003670061608514758</v>
       </c>
     </row>
     <row r="155">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B155">
-        <v>10322.78159251359</v>
+        <v>10322.78159250847</v>
       </c>
       <c r="C155">
-        <v>1628.938563849853</v>
+        <v>2378.027150482917</v>
       </c>
       <c r="D155">
-        <v>6.337121498380271</v>
+        <v>4.340901486516745</v>
       </c>
       <c r="E155">
-        <v>2.6005990730496E-10</v>
+        <v>1.494636684987007E-05</v>
       </c>
     </row>
     <row r="156">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B156">
-        <v>-18529.44349075722</v>
+        <v>-18529.44349076118</v>
       </c>
       <c r="C156">
-        <v>1623.276753775542</v>
+        <v>2369.761683401214</v>
       </c>
       <c r="D156">
-        <v>-11.41483942750983</v>
+        <v>-7.819116842233136</v>
       </c>
       <c r="E156">
-        <v>1.013150100405233E-29</v>
+        <v>8.803271278006697E-15</v>
       </c>
     </row>
     <row r="157">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B157">
-        <v>-11534.66571297847</v>
+        <v>-11534.66571298321</v>
       </c>
       <c r="C157">
-        <v>1623.276753775498</v>
+        <v>2369.761683401185</v>
       </c>
       <c r="D157">
-        <v>-7.105791225156502</v>
+        <v>-4.867437005913671</v>
       </c>
       <c r="E157">
-        <v>1.410114783452638E-12</v>
+        <v>1.225193157337216E-06</v>
       </c>
     </row>
     <row r="158">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B158">
-        <v>-3099.999046311485</v>
+        <v>-3099.999046316627</v>
       </c>
       <c r="C158">
-        <v>1623.276753775393</v>
+        <v>2369.761683401216</v>
       </c>
       <c r="D158">
-        <v>-1.909716897689536</v>
+        <v>-1.308148016752188</v>
       </c>
       <c r="E158">
-        <v>0.05624120412154515</v>
+        <v>0.1909834532760233</v>
       </c>
     </row>
     <row r="159">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B159">
-        <v>-17965.32951859853</v>
+        <v>-17965.32951860334</v>
       </c>
       <c r="C159">
-        <v>1628.938563849915</v>
+        <v>2378.027150483058</v>
       </c>
       <c r="D159">
-        <v>-11.02885640827261</v>
+        <v>-7.554720102734726</v>
       </c>
       <c r="E159">
-        <v>6.975313899531803E-28</v>
+        <v>6.521455351250948E-14</v>
       </c>
     </row>
     <row r="160">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B160">
-        <v>-4992.33333332777</v>
+        <v>-4992.333333332394</v>
       </c>
       <c r="C160">
-        <v>1622.898597464297</v>
+        <v>2369.209626991437</v>
       </c>
       <c r="D160">
-        <v>-3.076183158410549</v>
+        <v>-2.107172483370311</v>
       </c>
       <c r="E160">
-        <v>0.002110876790201941</v>
+        <v>0.03523512509521588</v>
       </c>
     </row>
     <row r="161">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B161">
-        <v>5082.889842576859</v>
+        <v>5082.889842572298</v>
       </c>
       <c r="C161">
-        <v>1623.276753775485</v>
+        <v>2369.761683401208</v>
       </c>
       <c r="D161">
-        <v>3.131252776678322</v>
+        <v>2.144894939510147</v>
       </c>
       <c r="E161">
-        <v>0.001753194410258412</v>
+        <v>0.03208939784041332</v>
       </c>
     </row>
     <row r="162">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B162">
-        <v>-12437.88888888125</v>
+        <v>-12437.88888888799</v>
       </c>
       <c r="C162">
-        <v>1622.898597464018</v>
+        <v>2369.209626991402</v>
       </c>
       <c r="D162">
-        <v>-7.663996326275106</v>
+        <v>-5.249805144799512</v>
       </c>
       <c r="E162">
-        <v>2.248093205950514E-14</v>
+        <v>1.695383653679105E-07</v>
       </c>
     </row>
     <row r="163">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B163">
-        <v>14205.33333333855</v>
+        <v>14205.33333333417</v>
       </c>
       <c r="C163">
-        <v>1622.898597464135</v>
+        <v>2369.209626991395</v>
       </c>
       <c r="D163">
-        <v>8.753062794887576</v>
+        <v>5.99581108041216</v>
       </c>
       <c r="E163">
-        <v>3.012248205050124E-18</v>
+        <v>2.422902949316638E-09</v>
       </c>
     </row>
     <row r="164">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B164">
-        <v>-16116.44444443903</v>
+        <v>-16116.44444444419</v>
       </c>
       <c r="C164">
-        <v>1622.89859746422</v>
+        <v>2369.20962699146</v>
       </c>
       <c r="D164">
-        <v>-9.930653997496197</v>
+        <v>-6.802456085285136</v>
       </c>
       <c r="E164">
-        <v>5.640396125992395E-23</v>
+        <v>1.378597106894495E-11</v>
       </c>
     </row>
     <row r="165">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B165">
-        <v>-13090.99999999414</v>
+        <v>-13090.99999999899</v>
       </c>
       <c r="C165">
-        <v>1622.898597464182</v>
+        <v>2369.209626991376</v>
       </c>
       <c r="D165">
-        <v>-8.066431273308845</v>
+        <v>-5.525471385418544</v>
       </c>
       <c r="E165">
-        <v>9.482403153745046E-16</v>
+        <v>3.745665987964163E-08</v>
       </c>
     </row>
     <row r="166">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B166">
-        <v>-16011.11015742375</v>
+        <v>-16011.11015742813</v>
       </c>
       <c r="C166">
-        <v>1623.276753775551</v>
+        <v>2369.761683401247</v>
       </c>
       <c r="D166">
-        <v>-9.863450653244305</v>
+        <v>-6.756422078041143</v>
       </c>
       <c r="E166">
-        <v>1.086613899371815E-22</v>
+        <v>1.881453318378334E-11</v>
       </c>
     </row>
     <row r="167">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B167">
-        <v>-9780.554601866692</v>
+        <v>-9780.554601872062</v>
       </c>
       <c r="C167">
-        <v>1623.276753775406</v>
+        <v>2369.761683401176</v>
       </c>
       <c r="D167">
-        <v>-6.025192302618235</v>
+        <v>-4.127231303628228</v>
       </c>
       <c r="E167">
-        <v>1.84156199917613E-09</v>
+        <v>3.832459010336897E-05</v>
       </c>
     </row>
     <row r="168">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B168">
-        <v>-5404.887935200491</v>
+        <v>-5404.887935205667</v>
       </c>
       <c r="C168">
-        <v>1623.276753775482</v>
+        <v>2369.761683401275</v>
       </c>
       <c r="D168">
-        <v>-3.329615804963378</v>
+        <v>-2.280772776884522</v>
       </c>
       <c r="E168">
-        <v>0.0008775431808082104</v>
+        <v>0.02267363910456813</v>
       </c>
     </row>
     <row r="169">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B169">
-        <v>11355.88984257702</v>
+        <v>11355.88984257223</v>
       </c>
       <c r="C169">
-        <v>1623.276753775476</v>
+        <v>2369.761683401163</v>
       </c>
       <c r="D169">
-        <v>6.995658513660766</v>
+        <v>4.79199656324676</v>
       </c>
       <c r="E169">
-        <v>3.081756814582209E-12</v>
+        <v>1.781201851476248E-06</v>
       </c>
     </row>
     <row r="170">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B170">
-        <v>-2829.665712978192</v>
+        <v>-2829.665712983312</v>
       </c>
       <c r="C170">
-        <v>1623.276753775446</v>
+        <v>2369.761683401243</v>
       </c>
       <c r="D170">
-        <v>-1.74318131914161</v>
+        <v>-1.194071848153939</v>
       </c>
       <c r="E170">
-        <v>0.081378860022094</v>
+        <v>0.232600904703052</v>
       </c>
     </row>
     <row r="171">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>-22465.99999999293</v>
+        <v>-22465.99999999947</v>
       </c>
       <c r="C171">
-        <v>1622.898597464117</v>
+        <v>2369.209626991414</v>
       </c>
       <c r="D171">
-        <v>-13.84313230358169</v>
+        <v>-9.482487216012348</v>
       </c>
       <c r="E171">
-        <v>1.327928066109234E-42</v>
+        <v>7.224577830957399E-21</v>
       </c>
     </row>
     <row r="172">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B172">
-        <v>-17484.88793519974</v>
+        <v>-17484.88793520535</v>
       </c>
       <c r="C172">
-        <v>1623.276753775415</v>
+        <v>2369.761683401188</v>
       </c>
       <c r="D172">
-        <v>-10.77135361824988</v>
+        <v>-7.378331778117982</v>
       </c>
       <c r="E172">
-        <v>1.089283890022147E-26</v>
+        <v>2.395641537193089E-13</v>
       </c>
     </row>
     <row r="173">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B173">
-        <v>-20777.66571297778</v>
+        <v>-20777.66571298335</v>
       </c>
       <c r="C173">
-        <v>1623.276753775446</v>
+        <v>2369.761683401209</v>
       </c>
       <c r="D173">
-        <v>-12.79982952053783</v>
+        <v>-8.767829211907136</v>
       </c>
       <c r="E173">
-        <v>8.596906859057709E-37</v>
+        <v>4.001484681009236E-18</v>
       </c>
     </row>
     <row r="174">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B174">
-        <v>-24049.99618526375</v>
+        <v>-24049.9961852684</v>
       </c>
       <c r="C174">
-        <v>1628.938563849828</v>
+        <v>2378.027150482915</v>
       </c>
       <c r="D174">
-        <v>-14.76421316248052</v>
+        <v>-10.1134237178009</v>
       </c>
       <c r="E174">
-        <v>4.508273645815263E-48</v>
+        <v>1.900548098605208E-23</v>
       </c>
     </row>
     <row r="175">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B175">
-        <v>-8934.554601866845</v>
+        <v>-8934.554601871849</v>
       </c>
       <c r="C175">
-        <v>1623.276753775404</v>
+        <v>2369.761683401139</v>
       </c>
       <c r="D175">
-        <v>-5.504024240528874</v>
+        <v>-3.770233380197438</v>
       </c>
       <c r="E175">
-        <v>3.945104049459772E-08</v>
+        <v>0.000168145613480737</v>
       </c>
     </row>
     <row r="176">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B176">
-        <v>-24027.55460186795</v>
+        <v>-24027.55460187178</v>
       </c>
       <c r="C176">
-        <v>1623.276753775513</v>
+        <v>2369.761683401173</v>
       </c>
       <c r="D176">
-        <v>-14.80188424184801</v>
+        <v>-10.13922824821208</v>
       </c>
       <c r="E176">
-        <v>2.652504982684689E-48</v>
+        <v>1.479964493302844E-23</v>
       </c>
     </row>
     <row r="177">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B177">
-        <v>-19619.11015742207</v>
+        <v>-19619.11015742789</v>
       </c>
       <c r="C177">
-        <v>1623.276753775433</v>
+        <v>2369.761683401216</v>
       </c>
       <c r="D177">
-        <v>-12.08611539085479</v>
+        <v>-8.278938044634698</v>
       </c>
       <c r="E177">
-        <v>4.687032494287154E-33</v>
+        <v>2.331958030751721E-16</v>
       </c>
     </row>
     <row r="178">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B178">
-        <v>-11953.55460186705</v>
+        <v>-11953.55460187199</v>
       </c>
       <c r="C178">
-        <v>1623.27675377544</v>
+        <v>2369.761683401185</v>
       </c>
       <c r="D178">
-        <v>-7.363842655952104</v>
+        <v>-5.044201147144774</v>
       </c>
       <c r="E178">
-        <v>2.158654804704485E-13</v>
+        <v>4.993987193897949E-07</v>
       </c>
     </row>
     <row r="179">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B179">
-        <v>-13079.88888888334</v>
+        <v>-13079.88888888846</v>
       </c>
       <c r="C179">
-        <v>1622.898597464213</v>
+        <v>2369.209626991446</v>
       </c>
       <c r="D179">
-        <v>-8.059584812828556</v>
+        <v>-5.520781588878665</v>
       </c>
       <c r="E179">
-        <v>1.001985208911432E-15</v>
+        <v>3.845387666276401E-08</v>
       </c>
     </row>
     <row r="180">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B180">
-        <v>-2311.665712978054</v>
+        <v>-2311.665712983059</v>
       </c>
       <c r="C180">
-        <v>1623.276753775362</v>
+        <v>2369.761683401173</v>
       </c>
       <c r="D180">
-        <v>-1.42407368774404</v>
+        <v>-0.9754844671407074</v>
       </c>
       <c r="E180">
-        <v>0.1545032230467011</v>
+        <v>0.3294458361637458</v>
       </c>
     </row>
     <row r="181">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B181">
-        <v>-14144.33237964516</v>
+        <v>-14144.33237964958</v>
       </c>
       <c r="C181">
-        <v>1623.276753775477</v>
+        <v>2369.761683401159</v>
       </c>
       <c r="D181">
-        <v>-8.713444794147236</v>
+        <v>-5.96867291707965</v>
       </c>
       <c r="E181">
-        <v>4.248390941569839E-18</v>
+        <v>2.853369483381316E-09</v>
       </c>
     </row>
     <row r="182">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B182">
-        <v>-8813.554601867796</v>
+        <v>-8813.554601871938</v>
       </c>
       <c r="C182">
-        <v>1623.276753775534</v>
+        <v>2369.761683401175</v>
       </c>
       <c r="D182">
-        <v>-5.429483654816465</v>
+        <v>-3.719173393512878</v>
       </c>
       <c r="E182">
-        <v>5.987601548674523E-08</v>
+        <v>0.0002057525521005966</v>
       </c>
     </row>
     <row r="183">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B183">
-        <v>-9269.554601867578</v>
+        <v>-9269.554601872052</v>
       </c>
       <c r="C183">
-        <v>1623.276753775495</v>
+        <v>2369.7616834012</v>
       </c>
       <c r="D183">
-        <v>-5.710396936510056</v>
+        <v>-3.911597806142231</v>
       </c>
       <c r="E183">
-        <v>1.209071065794898E-08</v>
+        <v>9.495556114924274E-05</v>
       </c>
     </row>
     <row r="184">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B184">
-        <v>-13425.99904631176</v>
+        <v>-13425.99904631668</v>
       </c>
       <c r="C184">
-        <v>1623.276753775477</v>
+        <v>2369.761683401218</v>
       </c>
       <c r="D184">
-        <v>-8.270924237093318</v>
+        <v>-5.665548202740333</v>
       </c>
       <c r="E184">
-        <v>1.790537812664088E-16</v>
+        <v>1.692893753455472E-08</v>
       </c>
     </row>
     <row r="185">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B185">
-        <v>-22242.88888888381</v>
+        <v>-22242.88888888798</v>
       </c>
       <c r="C185">
-        <v>1622.898597464232</v>
+        <v>2369.209626991388</v>
       </c>
       <c r="D185">
-        <v>-13.70565537713704</v>
+        <v>-9.388316101489838</v>
       </c>
       <c r="E185">
-        <v>8.173260102860902E-42</v>
+        <v>1.703158609864292E-20</v>
       </c>
     </row>
     <row r="186">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B186">
-        <v>-15788.44444443758</v>
+        <v>-15788.44444444306</v>
       </c>
       <c r="C186">
-        <v>1622.898597464111</v>
+        <v>2369.209626991335</v>
       </c>
       <c r="D186">
-        <v>-9.728546484116809</v>
+        <v>-6.664013291425311</v>
       </c>
       <c r="E186">
-        <v>4.001904185544922E-22</v>
+        <v>3.492023037411317E-11</v>
       </c>
     </row>
     <row r="187">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B187">
-        <v>-3447.555555549939</v>
+        <v>-3447.555555554677</v>
       </c>
       <c r="C187">
-        <v>1622.898597464148</v>
+        <v>2369.209626991369</v>
       </c>
       <c r="D187">
-        <v>-2.124319757831389</v>
+        <v>-1.455150070419343</v>
       </c>
       <c r="E187">
-        <v>0.03370465000733012</v>
+        <v>0.1457951124270641</v>
       </c>
     </row>
     <row r="188">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B188">
-        <v>-21695.9999999937</v>
+        <v>-21695.99999999882</v>
       </c>
       <c r="C188">
-        <v>1622.898597464162</v>
+        <v>2369.209626991367</v>
       </c>
       <c r="D188">
-        <v>-13.36867259229534</v>
+        <v>-9.157484315792827</v>
       </c>
       <c r="E188">
-        <v>6.559870676826235E-40</v>
+        <v>1.349541050324224E-19</v>
       </c>
     </row>
     <row r="189">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B189">
-        <v>-16252.33237964465</v>
+        <v>-16252.33237965018</v>
       </c>
       <c r="C189">
-        <v>1623.276753775457</v>
+        <v>2369.761683401229</v>
       </c>
       <c r="D189">
-        <v>-10.01205268408149</v>
+        <v>-6.8582138421294</v>
       </c>
       <c r="E189">
-        <v>2.53500612535244E-23</v>
+        <v>9.434805463779957E-12</v>
       </c>
     </row>
     <row r="190">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B190">
-        <v>-16580.55555554897</v>
+        <v>-16580.55555555529</v>
       </c>
       <c r="C190">
-        <v>1622.89859746413</v>
+        <v>2369.209626991454</v>
       </c>
       <c r="D190">
-        <v>-10.21663065175915</v>
+        <v>-6.998348886759398</v>
       </c>
       <c r="E190">
-        <v>3.306596280084196E-24</v>
+        <v>3.592295380647876E-12</v>
       </c>
     </row>
     <row r="191">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B191">
-        <v>-1793.777777772161</v>
+        <v>-1793.777777776919</v>
       </c>
       <c r="C191">
-        <v>1622.898597464221</v>
+        <v>2369.209626991435</v>
       </c>
       <c r="D191">
-        <v>-1.105292579939954</v>
+        <v>-0.7571207534112406</v>
       </c>
       <c r="E191">
-        <v>0.269099374752959</v>
+        <v>0.4490726509109804</v>
       </c>
     </row>
     <row r="192">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B192">
-        <v>-10002.44349075634</v>
+        <v>-10002.44349076112</v>
       </c>
       <c r="C192">
-        <v>1623.276753775485</v>
+        <v>2369.761683401211</v>
       </c>
       <c r="D192">
-        <v>-6.161884267419119</v>
+        <v>-4.220864722736621</v>
       </c>
       <c r="E192">
-        <v>7.899311589116371E-10</v>
+        <v>2.549994410648695E-05</v>
       </c>
     </row>
     <row r="193">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B193">
-        <v>-22179.77777777247</v>
+        <v>-22179.77777777718</v>
       </c>
       <c r="C193">
-        <v>1622.898597464217</v>
+        <v>2369.20962699141</v>
       </c>
       <c r="D193">
-        <v>-13.66676748160879</v>
+        <v>-9.361678057142893</v>
       </c>
       <c r="E193">
-        <v>1.362558552125458E-41</v>
+        <v>2.167744145207756E-20</v>
       </c>
     </row>
     <row r="194">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B194">
-        <v>-20436.44444443938</v>
+        <v>-20436.44444444347</v>
       </c>
       <c r="C194">
-        <v>1622.898597464235</v>
+        <v>2369.20962699138</v>
       </c>
       <c r="D194">
-        <v>-12.59255783224605</v>
+        <v>-8.625848980022665</v>
       </c>
       <c r="E194">
-        <v>1.095538825366243E-35</v>
+        <v>1.331446855745747E-17</v>
       </c>
     </row>
     <row r="195">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B195">
-        <v>7637.889842576996</v>
+        <v>7637.889842572323</v>
       </c>
       <c r="C195">
-        <v>1623.276753775511</v>
+        <v>2369.76168340116</v>
       </c>
       <c r="D195">
-        <v>4.705229607220303</v>
+        <v>3.223062426939983</v>
       </c>
       <c r="E195">
-        <v>2.621585745922943E-06</v>
+        <v>0.001290056439612066</v>
       </c>
     </row>
     <row r="196">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B196">
-        <v>-18884.99999999423</v>
+        <v>-18884.99999999859</v>
       </c>
       <c r="C196">
-        <v>1622.898597464191</v>
+        <v>2369.20962699134</v>
       </c>
       <c r="D196">
-        <v>-11.63658655537837</v>
+        <v>-7.971012689147583</v>
       </c>
       <c r="E196">
-        <v>8.384097228761573E-31</v>
+        <v>2.708608025835699E-15</v>
       </c>
     </row>
     <row r="197">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B197">
-        <v>-21141.77777777274</v>
+        <v>-21141.77777777627</v>
       </c>
       <c r="C197">
-        <v>1622.898597464233</v>
+        <v>2369.209626991335</v>
       </c>
       <c r="D197">
-        <v>-13.027171143537</v>
+        <v>-8.923557264379456</v>
       </c>
       <c r="E197">
-        <v>5.04869916576416E-38</v>
+        <v>1.049016383596345E-18</v>
       </c>
     </row>
     <row r="198">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B198">
-        <v>6390.444444450341</v>
+        <v>6390.444444445299</v>
       </c>
       <c r="C198">
-        <v>1622.898597464252</v>
+        <v>2369.209626991362</v>
       </c>
       <c r="D198">
-        <v>3.937673280656775</v>
+        <v>2.697289581994678</v>
       </c>
       <c r="E198">
-        <v>8.367759297919714E-05</v>
+        <v>0.007053253634201491</v>
       </c>
     </row>
     <row r="199">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B199">
-        <v>-5994.666666661055</v>
+        <v>-5994.666666665648</v>
       </c>
       <c r="C199">
-        <v>1622.898597464236</v>
+        <v>2369.20962699137</v>
       </c>
       <c r="D199">
-        <v>-3.693802358340605</v>
+        <v>-2.530239029240397</v>
       </c>
       <c r="E199">
-        <v>0.0002238803349978379</v>
+        <v>0.01147973025157685</v>
       </c>
     </row>
     <row r="200">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>-22599.33333332694</v>
+        <v>-22599.33333333197</v>
       </c>
       <c r="C200">
-        <v>1622.898597464157</v>
+        <v>2369.209626991351</v>
       </c>
       <c r="D200">
-        <v>-13.92528982934565</v>
+        <v>-9.538764774491806</v>
       </c>
       <c r="E200">
-        <v>4.447861994909157E-43</v>
+        <v>4.311842055775006E-21</v>
       </c>
     </row>
     <row r="201">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B201">
-        <v>-18225.3333333273</v>
+        <v>-18225.3333333322</v>
       </c>
       <c r="C201">
-        <v>1622.898597464174</v>
+        <v>2369.209626991366</v>
       </c>
       <c r="D201">
-        <v>-11.23011219666152</v>
+        <v>-7.692579468570013</v>
       </c>
       <c r="E201">
-        <v>7.808227060848004E-29</v>
+        <v>2.313452907013972E-14</v>
       </c>
     </row>
     <row r="202">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B202">
-        <v>-23846.88888888337</v>
+        <v>-23846.88888888829</v>
       </c>
       <c r="C202">
-        <v>1622.898597464206</v>
+        <v>2369.20962699141</v>
       </c>
       <c r="D202">
-        <v>-14.69401041207649</v>
+        <v>-10.06533512999892</v>
       </c>
       <c r="E202">
-        <v>1.207538092920203E-47</v>
+        <v>3.024582581853396E-23</v>
       </c>
     </row>
     <row r="203">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B203">
-        <v>-13339.66666666158</v>
+        <v>-13339.66666666594</v>
       </c>
       <c r="C203">
-        <v>1622.898597464243</v>
+        <v>2369.209626991414</v>
       </c>
       <c r="D203">
-        <v>-8.219655058858656</v>
+        <v>-5.630429031982946</v>
       </c>
       <c r="E203">
-        <v>2.729495592082801E-16</v>
+        <v>2.069378505084671E-08</v>
       </c>
     </row>
     <row r="204">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B204">
-        <v>-21139.77777777142</v>
+        <v>-21139.77777777705</v>
       </c>
       <c r="C204">
-        <v>1622.898597464154</v>
+        <v>2369.209626991403</v>
       </c>
       <c r="D204">
-        <v>-13.02593878065037</v>
+        <v>-8.922713101002337</v>
       </c>
       <c r="E204">
-        <v>5.127508074136365E-38</v>
+        <v>1.056717284513431E-18</v>
       </c>
     </row>
     <row r="205">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B205">
-        <v>-11298.99999999422</v>
+        <v>-11298.99999999908</v>
       </c>
       <c r="C205">
-        <v>1622.898597464186</v>
+        <v>2369.209626991391</v>
       </c>
       <c r="D205">
-        <v>-6.962234127042287</v>
+        <v>-4.769100999453323</v>
       </c>
       <c r="E205">
-        <v>3.898182901596336E-12</v>
+        <v>1.993330448225422E-06</v>
       </c>
     </row>
     <row r="206">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B206">
-        <v>-22391.55555554974</v>
+        <v>-22391.55555555478</v>
       </c>
       <c r="C206">
-        <v>1622.898597464187</v>
+        <v>2369.209626991399</v>
       </c>
       <c r="D206">
-        <v>-13.7972610183637</v>
+        <v>-9.451065579194555</v>
       </c>
       <c r="E206">
-        <v>2.439480323147091E-42</v>
+        <v>9.626104846901516E-21</v>
       </c>
     </row>
     <row r="207">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B207">
-        <v>-22533.88888888275</v>
+        <v>-22533.88888888776</v>
       </c>
       <c r="C207">
-        <v>1622.898597464171</v>
+        <v>2369.209626991367</v>
       </c>
       <c r="D207">
-        <v>-13.88496417711657</v>
+        <v>-9.511141872871457</v>
       </c>
       <c r="E207">
-        <v>7.614193444129226E-43</v>
+        <v>5.556866520952894E-21</v>
       </c>
     </row>
     <row r="208">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B208">
-        <v>-21346.88888888326</v>
+        <v>-21346.88888888805</v>
       </c>
       <c r="C208">
-        <v>1622.898597464198</v>
+        <v>2369.209626991392</v>
       </c>
       <c r="D208">
-        <v>-13.1535568040037</v>
+        <v>-9.010130908507241</v>
       </c>
       <c r="E208">
-        <v>1.023858169580855E-38</v>
+        <v>4.938368600601452E-19</v>
       </c>
     </row>
     <row r="209">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B209">
-        <v>-23203.77777777264</v>
+        <v>-23203.77777777672</v>
       </c>
       <c r="C209">
-        <v>1622.898597464221</v>
+        <v>2369.209626991372</v>
       </c>
       <c r="D209">
-        <v>-14.29773727947547</v>
+        <v>-9.793889706265833</v>
       </c>
       <c r="E209">
-        <v>2.905002846623104E-45</v>
+        <v>4.01607077361083E-22</v>
       </c>
     </row>
     <row r="210">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B210">
-        <v>-5159.555555549861</v>
+        <v>-5159.555555554499</v>
       </c>
       <c r="C210">
-        <v>1622.898597464179</v>
+        <v>2369.209626991366</v>
       </c>
       <c r="D210">
-        <v>-3.179222388639562</v>
+        <v>-2.177753921296767</v>
       </c>
       <c r="E210">
-        <v>0.001487988081801988</v>
+        <v>0.02954863599529622</v>
       </c>
     </row>
     <row r="211">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B211">
-        <v>-22353.11111110637</v>
+        <v>-22353.11111111</v>
       </c>
       <c r="C211">
-        <v>1622.898597464251</v>
+        <v>2369.20962699137</v>
       </c>
       <c r="D211">
-        <v>-13.77357226510189</v>
+        <v>-9.434838883166252</v>
       </c>
       <c r="E211">
-        <v>3.337232872618118E-42</v>
+        <v>1.116020366471788E-20</v>
       </c>
     </row>
     <row r="212">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B212">
-        <v>-22589.8888888834</v>
+        <v>-22589.88888888766</v>
       </c>
       <c r="C212">
-        <v>1622.898597464204</v>
+        <v>2369.209626991358</v>
       </c>
       <c r="D212">
-        <v>-13.91947033793753</v>
+        <v>-9.534778447432865</v>
       </c>
       <c r="E212">
-        <v>4.807085153082654E-43</v>
+        <v>4.472793176053055E-21</v>
       </c>
     </row>
     <row r="213">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B213">
-        <v>2735.22317591036</v>
+        <v>2735.223175905732</v>
       </c>
       <c r="C213">
-        <v>1623.276753775505</v>
+        <v>2369.761683401205</v>
       </c>
       <c r="D213">
-        <v>1.685001137081912</v>
+        <v>1.15421866893383</v>
       </c>
       <c r="E213">
-        <v>0.09206643614768442</v>
+        <v>0.2485576216842295</v>
       </c>
     </row>
     <row r="214">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B214">
-        <v>-5946.666666661126</v>
+        <v>-5946.666666665646</v>
       </c>
       <c r="C214">
-        <v>1622.898597464219</v>
+        <v>2369.209626991373</v>
       </c>
       <c r="D214">
-        <v>-3.664225649065691</v>
+        <v>-2.509979108187753</v>
       </c>
       <c r="E214">
-        <v>0.000251306996548911</v>
+        <v>0.01215747212534506</v>
       </c>
     </row>
     <row r="215">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B215">
-        <v>-13211.66666666147</v>
+        <v>-13211.66666666579</v>
       </c>
       <c r="C215">
-        <v>1622.898597464236</v>
+        <v>2369.209626991399</v>
       </c>
       <c r="D215">
-        <v>-8.140783834125298</v>
+        <v>-5.576402575842547</v>
       </c>
       <c r="E215">
-        <v>5.19599805399413E-16</v>
+        <v>2.812135272150479E-08</v>
       </c>
     </row>
     <row r="216">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B216">
-        <v>-11232.33333332757</v>
+        <v>-11232.33333333239</v>
       </c>
       <c r="C216">
-        <v>1622.898597464189</v>
+        <v>2369.209626991388</v>
       </c>
       <c r="D216">
-        <v>-6.921155364160342</v>
+        <v>-4.740962220213543</v>
       </c>
       <c r="E216">
-        <v>5.196019813222395E-12</v>
+        <v>2.287423426643256E-06</v>
       </c>
     </row>
     <row r="217">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B217">
-        <v>-11648.33333332736</v>
+        <v>-11648.33333333229</v>
       </c>
       <c r="C217">
-        <v>1622.898597464173</v>
+        <v>2369.20962699137</v>
       </c>
       <c r="D217">
-        <v>-7.177486844543602</v>
+        <v>-4.91654820266975</v>
       </c>
       <c r="E217">
-        <v>8.424397927053679E-13</v>
+        <v>9.575902584548478E-07</v>
       </c>
     </row>
     <row r="218">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B218">
-        <v>-13188.44444443867</v>
+        <v>-13188.44444444361</v>
       </c>
       <c r="C218">
-        <v>1622.898597464186</v>
+        <v>2369.209626991399</v>
       </c>
       <c r="D218">
-        <v>-8.126474731721316</v>
+        <v>-5.56660090107404</v>
       </c>
       <c r="E218">
-        <v>5.83607968762283E-16</v>
+        <v>2.972183815164581E-08</v>
       </c>
     </row>
     <row r="219">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B219">
-        <v>21652.66666667213</v>
+        <v>21652.66666666787</v>
       </c>
       <c r="C219">
-        <v>1622.898597464174</v>
+        <v>2369.20962699139</v>
       </c>
       <c r="D219">
-        <v>13.34197139642923</v>
+        <v>9.139194109287892</v>
       </c>
       <c r="E219">
-        <v>9.246349888884126E-40</v>
+        <v>1.586941818223239E-19</v>
       </c>
     </row>
     <row r="220">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B220">
-        <v>-19923.99618526474</v>
+        <v>-19923.99618526931</v>
       </c>
       <c r="C220">
-        <v>1628.938563849882</v>
+        <v>2378.027150482987</v>
       </c>
       <c r="D220">
-        <v>-12.2312754006976</v>
+        <v>-8.378372038865354</v>
       </c>
       <c r="E220">
-        <v>8.448928554286724E-34</v>
+        <v>1.037600765210688E-16</v>
       </c>
     </row>
     <row r="221">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B221">
-        <v>-14185.11111110562</v>
+        <v>-14185.11111111019</v>
       </c>
       <c r="C221">
-        <v>1622.898597464215</v>
+        <v>2369.209626991388</v>
       </c>
       <c r="D221">
-        <v>-8.740602236806359</v>
+        <v>-5.987275650708703</v>
       </c>
       <c r="E221">
-        <v>3.356814376286826E-18</v>
+        <v>2.550970294579904E-09</v>
       </c>
     </row>
     <row r="222">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B222">
-        <v>-23013.44444443843</v>
+        <v>-23013.44444444323</v>
       </c>
       <c r="C222">
-        <v>1622.898597464181</v>
+        <v>2369.209626991359</v>
       </c>
       <c r="D222">
-        <v>-14.18045741144733</v>
+        <v>-9.713553491536256</v>
       </c>
       <c r="E222">
-        <v>1.434658734062776E-44</v>
+        <v>8.531087982943676E-22</v>
       </c>
     </row>
     <row r="223">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B223">
-        <v>-24356.91811138248</v>
+        <v>-24356.91811138706</v>
       </c>
       <c r="C223">
-        <v>1735.712498986725</v>
+        <v>2533.902468530051</v>
       </c>
       <c r="D223">
-        <v>-14.03280677278154</v>
+        <v>-9.612413427071177</v>
       </c>
       <c r="E223">
-        <v>1.053646141061381E-43</v>
+        <v>2.18549485487145E-21</v>
       </c>
     </row>
     <row r="224">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B224">
-        <v>-15592.66666666087</v>
+        <v>-15592.66666666577</v>
       </c>
       <c r="C224">
-        <v>1622.898597464192</v>
+        <v>2369.209626991386</v>
       </c>
       <c r="D224">
-        <v>-9.607911850453686</v>
+        <v>-6.581379076391226</v>
       </c>
       <c r="E224">
-        <v>1.265904873292621E-21</v>
+        <v>6.030999569263521E-11</v>
       </c>
     </row>
     <row r="225">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B225">
-        <v>-20722.33237964544</v>
+        <v>-20722.33237964962</v>
       </c>
       <c r="C225">
-        <v>1623.276753775505</v>
+        <v>2369.761683401173</v>
       </c>
       <c r="D225">
-        <v>-12.76574209015704</v>
+        <v>-8.744479465930151</v>
       </c>
       <c r="E225">
-        <v>1.309915222740094E-36</v>
+        <v>4.882142339014158E-18</v>
       </c>
     </row>
     <row r="226">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B226">
-        <v>-23023.11015742258</v>
+        <v>-23023.1101574274</v>
       </c>
       <c r="C226">
-        <v>1623.27675377547</v>
+        <v>2369.761683401177</v>
       </c>
       <c r="D226">
-        <v>-14.18310839718161</v>
+        <v>-9.715369405578246</v>
       </c>
       <c r="E226">
-        <v>1.383970719479179E-44</v>
+        <v>8.38754100737634E-22</v>
       </c>
     </row>
     <row r="227">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B227">
-        <v>39012.44444444991</v>
+        <v>39012.44444444535</v>
       </c>
       <c r="C227">
-        <v>1622.898597464184</v>
+        <v>2369.209626991373</v>
       </c>
       <c r="D227">
-        <v>24.03874432167711</v>
+        <v>16.46643842739519</v>
       </c>
       <c r="E227">
-        <v>2.248475510877098E-119</v>
+        <v>5.267630836995988E-57</v>
       </c>
     </row>
     <row r="228">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B228">
-        <v>-7336.332379645149</v>
+        <v>-7336.332379649825</v>
       </c>
       <c r="C228">
-        <v>1623.276753775495</v>
+        <v>2369.761683401184</v>
       </c>
       <c r="D228">
-        <v>-4.519458781493639</v>
+        <v>-3.095810195192457</v>
       </c>
       <c r="E228">
-        <v>6.379137095572446E-06</v>
+        <v>0.001991795011765517</v>
       </c>
     </row>
     <row r="229">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>-22656.22222221644</v>
+        <v>-22656.22222222124</v>
       </c>
       <c r="C229">
-        <v>1622.898597464194</v>
+        <v>2369.209626991379</v>
       </c>
       <c r="D229">
-        <v>-13.96034370700496</v>
+        <v>-9.562776532776464</v>
       </c>
       <c r="E229">
-        <v>2.784242087498104E-43</v>
+        <v>3.456748417400114E-21</v>
       </c>
     </row>
     <row r="230">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B230">
-        <v>-11710.22222221646</v>
+        <v>-11710.22222222122</v>
       </c>
       <c r="C230">
-        <v>1622.898597464194</v>
+        <v>2369.209626991376</v>
       </c>
       <c r="D230">
-        <v>-7.21562162941904</v>
+        <v>-4.942670369397349</v>
       </c>
       <c r="E230">
-        <v>6.392723002469369E-13</v>
+        <v>8.391842776320508E-07</v>
       </c>
     </row>
     <row r="231">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B231">
-        <v>-19656.66285193114</v>
+        <v>-19656.66285193571</v>
       </c>
       <c r="C231">
-        <v>1628.938563849867</v>
+        <v>2378.027150482965</v>
       </c>
       <c r="D231">
-        <v>-12.06716035101667</v>
+        <v>-8.2659539223274</v>
       </c>
       <c r="E231">
-        <v>5.854119800224177E-33</v>
+        <v>2.590388883092735E-16</v>
       </c>
     </row>
     <row r="232">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B232">
-        <v>-20718.10729637567</v>
+        <v>-20718.10729638022</v>
       </c>
       <c r="C232">
-        <v>1628.938563849872</v>
+        <v>2378.02715048297</v>
       </c>
       <c r="D232">
-        <v>-12.71877758692753</v>
+        <v>-8.71230897938757</v>
       </c>
       <c r="E232">
-        <v>2.336205230217284E-36</v>
+        <v>6.416468585486639E-18</v>
       </c>
     </row>
     <row r="233">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B233">
-        <v>-21725.77396304224</v>
+        <v>-21725.77396304686</v>
       </c>
       <c r="C233">
-        <v>1628.938563849868</v>
+        <v>2378.027150482968</v>
       </c>
       <c r="D233">
-        <v>-13.33738082281942</v>
+        <v>-9.136049585739354</v>
       </c>
       <c r="E233">
-        <v>9.807825967642834E-40</v>
+        <v>1.63172695511354E-19</v>
       </c>
     </row>
     <row r="234">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B234">
-        <v>-21871.22222221645</v>
+        <v>-21871.22222222121</v>
       </c>
       <c r="C234">
-        <v>1622.898597464193</v>
+        <v>2369.209626991377</v>
       </c>
       <c r="D234">
-        <v>-13.47664127407011</v>
+        <v>-9.231442407228077</v>
       </c>
       <c r="E234">
-        <v>1.626869588334425E-40</v>
+        <v>6.987793240560484E-20</v>
       </c>
     </row>
     <row r="235">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B235">
-        <v>-14952.88888888314</v>
+        <v>-14952.88888888794</v>
       </c>
       <c r="C235">
-        <v>1622.898597464194</v>
+        <v>2369.20962699138</v>
       </c>
       <c r="D235">
-        <v>-9.213692655996669</v>
+        <v>-6.311340591620153</v>
       </c>
       <c r="E235">
-        <v>4.966614507207686E-20</v>
+        <v>3.443582611427482E-10</v>
       </c>
     </row>
     <row r="236">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B236">
-        <v>918.778731465972</v>
+        <v>918.7787314612292</v>
       </c>
       <c r="C236">
-        <v>1623.27675377549</v>
+        <v>2369.761683401194</v>
       </c>
       <c r="D236">
-        <v>0.5660025188736519</v>
+        <v>0.3877093371442122</v>
       </c>
       <c r="E236">
-        <v>0.571423850265156</v>
+        <v>0.6982751529731364</v>
       </c>
     </row>
     <row r="237">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B237">
-        <v>-15887.7768240896</v>
+        <v>-15887.7768240943</v>
       </c>
       <c r="C237">
-        <v>1623.276753775486</v>
+        <v>2369.761683401193</v>
       </c>
       <c r="D237">
-        <v>-9.787472645768586</v>
+        <v>-6.704377463514145</v>
       </c>
       <c r="E237">
-        <v>2.269077353984649E-22</v>
+        <v>2.667934096848362E-11</v>
       </c>
     </row>
     <row r="238">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B238">
-        <v>-19219.11111110537</v>
+        <v>-19219.11111111016</v>
       </c>
       <c r="C238">
-        <v>1622.898597464195</v>
+        <v>2369.20962699138</v>
       </c>
       <c r="D238">
-        <v>-11.8424596220217</v>
+        <v>-8.112034871104331</v>
       </c>
       <c r="E238">
-        <v>7.97206782577775E-32</v>
+        <v>8.902644737986693E-16</v>
       </c>
     </row>
     <row r="239">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B239">
-        <v>-1921.776824089581</v>
+        <v>-1921.776824094337</v>
       </c>
       <c r="C239">
-        <v>1623.276753775487</v>
+        <v>2369.761683401194</v>
       </c>
       <c r="D239">
-        <v>-1.183887356003731</v>
+        <v>-0.810957843379471</v>
       </c>
       <c r="E239">
-        <v>0.2365280738706339</v>
+        <v>0.417492803877335</v>
       </c>
     </row>
     <row r="240">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B240">
-        <v>759.6930813107404</v>
+        <v>759.6930813105259</v>
       </c>
       <c r="C240">
-        <v>316.7021520635111</v>
+        <v>462.3417561208145</v>
       </c>
       <c r="D240">
-        <v>2.398761979862999</v>
+        <v>1.643141834483171</v>
       </c>
       <c r="E240">
-        <v>0.01649615893152697</v>
+        <v>0.1005212567479241</v>
       </c>
     </row>
     <row r="241">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B241">
-        <v>1118.907690640279</v>
+        <v>1118.907690640351</v>
       </c>
       <c r="C241">
-        <v>316.6384284230136</v>
+        <v>462.2487283353657</v>
       </c>
       <c r="D241">
-        <v>3.533707820029579</v>
+        <v>2.420574946024671</v>
       </c>
       <c r="E241">
-        <v>0.0004144129377791744</v>
+        <v>0.01559044051740428</v>
       </c>
     </row>
     <row r="242">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B242">
-        <v>1932.390741487884</v>
+        <v>1932.39074148798</v>
       </c>
       <c r="C242">
-        <v>316.6384284230131</v>
+        <v>462.2487283353638</v>
       </c>
       <c r="D242">
-        <v>6.102830762241869</v>
+        <v>4.18041332086915</v>
       </c>
       <c r="E242">
-        <v>1.141150369054511E-09</v>
+        <v>3.043782169074314E-05</v>
       </c>
     </row>
     <row r="243">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B243">
-        <v>2978.104098259721</v>
+        <v>2978.10409825968</v>
       </c>
       <c r="C243">
-        <v>316.7021520635104</v>
+        <v>462.3417561208151</v>
       </c>
       <c r="D243">
-        <v>9.403485511088354</v>
+        <v>6.441347896514602</v>
       </c>
       <c r="E243">
-        <v>8.641778054808308E-21</v>
+        <v>1.50091837520607E-10</v>
       </c>
     </row>
     <row r="244">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B244">
-        <v>3219.670163170416</v>
+        <v>3219.670163170223</v>
       </c>
       <c r="C244">
-        <v>343.2148323630358</v>
+        <v>501.0466373137104</v>
       </c>
       <c r="D244">
-        <v>9.38091789624292</v>
+        <v>6.425889175570607</v>
       </c>
       <c r="E244">
-        <v>1.065777004044245E-20</v>
+        <v>1.658032145339098E-10</v>
       </c>
     </row>
     <row r="245">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B245">
-        <v>4177.050110401213</v>
+        <v>4177.050110400882</v>
       </c>
       <c r="C245">
-        <v>399.3147844573292</v>
+        <v>582.9448820858773</v>
       </c>
       <c r="D245">
-        <v>10.46054459535688</v>
+        <v>7.165428908912753</v>
       </c>
       <c r="E245">
-        <v>2.772987065238325E-25</v>
+        <v>1.10988634914885E-12</v>
       </c>
     </row>
     <row r="246">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B246">
-        <v>4757.330566273787</v>
+        <v>4757.330566273256</v>
       </c>
       <c r="C246">
-        <v>398.4814555327799</v>
+        <v>581.7283360160411</v>
       </c>
       <c r="D246">
-        <v>11.93864984234489</v>
+        <v>8.177924766143889</v>
       </c>
       <c r="E246">
-        <v>2.621041693402133E-32</v>
+        <v>5.261573637046955E-16</v>
       </c>
     </row>
     <row r="247">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B247">
-        <v>4354.621293324098</v>
+        <v>4354.621293323681</v>
       </c>
       <c r="C247">
-        <v>400.0487442267546</v>
+        <v>584.016362802088</v>
       </c>
       <c r="D247">
-        <v>10.88522675340738</v>
+        <v>7.456334395204915</v>
       </c>
       <c r="E247">
-        <v>3.254894574172235E-27</v>
+        <v>1.352165593088453E-13</v>
       </c>
     </row>
   </sheetData>
